--- a/fhir/indisa/StructureDefinition-ProfileServiceRequestKlinic.xlsx
+++ b/fhir/indisa/StructureDefinition-ProfileServiceRequestKlinic.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7199" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7199" uniqueCount="684">
   <si>
     <t>Path</t>
   </si>
@@ -600,6 +600,9 @@
   </si>
   <si>
     <t>autorizacionIdentifier</t>
+  </si>
+  <si>
+    <t>Identifiers assigned to this order, it is a authorizacion of the order, in the event that it is required.</t>
   </si>
   <si>
     <t>secondary</t>
@@ -4645,7 +4648,7 @@
         <v>110</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>111</v>
+        <v>188</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>112</v>
@@ -5001,7 +5004,7 @@
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R24" t="s" s="2">
         <v>44</v>
@@ -5233,7 +5236,7 @@
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="R26" t="s" s="2">
         <v>44</v>
@@ -5647,7 +5650,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5670,16 +5673,16 @@
         <v>53</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5729,7 +5732,7 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -5744,13 +5747,13 @@
         <v>64</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>44</v>
@@ -5761,7 +5764,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5787,13 +5790,13 @@
         <v>66</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5843,7 +5846,7 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -5858,13 +5861,13 @@
         <v>64</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>44</v>
@@ -5875,11 +5878,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5898,13 +5901,13 @@
         <v>53</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5955,7 +5958,7 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -5970,13 +5973,13 @@
         <v>64</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>44</v>
@@ -5987,7 +5990,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6099,7 +6102,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6213,7 +6216,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6239,13 +6242,13 @@
         <v>54</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6295,7 +6298,7 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -6304,7 +6307,7 @@
         <v>52</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>64</v>
@@ -6327,7 +6330,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6353,13 +6356,13 @@
         <v>66</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6388,10 +6391,10 @@
         <v>149</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>44</v>
@@ -6409,7 +6412,7 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -6441,7 +6444,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6467,13 +6470,13 @@
         <v>110</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6523,7 +6526,7 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -6555,7 +6558,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6581,13 +6584,13 @@
         <v>54</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6637,7 +6640,7 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -6669,11 +6672,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6692,13 +6695,13 @@
         <v>53</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6749,7 +6752,7 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -6764,13 +6767,13 @@
         <v>64</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>44</v>
@@ -6781,7 +6784,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6893,7 +6896,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7007,7 +7010,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7033,13 +7036,13 @@
         <v>54</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7089,7 +7092,7 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -7098,7 +7101,7 @@
         <v>52</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>64</v>
@@ -7121,7 +7124,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7147,13 +7150,13 @@
         <v>66</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7182,10 +7185,10 @@
         <v>149</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>44</v>
@@ -7203,7 +7206,7 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -7235,7 +7238,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7261,13 +7264,13 @@
         <v>110</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7317,7 +7320,7 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -7349,7 +7352,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7375,13 +7378,13 @@
         <v>54</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7431,7 +7434,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -7463,11 +7466,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7489,16 +7492,16 @@
         <v>110</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>44</v>
@@ -7547,7 +7550,7 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -7562,13 +7565,13 @@
         <v>64</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>44</v>
@@ -7579,7 +7582,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7691,7 +7694,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7805,7 +7808,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7921,7 +7924,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8037,7 +8040,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8079,7 +8082,7 @@
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>44</v>
@@ -8153,7 +8156,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8267,7 +8270,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8379,7 +8382,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8493,7 +8496,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8519,13 +8522,13 @@
         <v>72</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8554,10 +8557,10 @@
         <v>138</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>44</v>
@@ -8575,7 +8578,7 @@
         <v>44</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>52</v>
@@ -8590,24 +8593,24 @@
         <v>64</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8633,13 +8636,13 @@
         <v>72</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8668,10 +8671,10 @@
         <v>138</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>44</v>
@@ -8689,7 +8692,7 @@
         <v>44</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>52</v>
@@ -8704,16 +8707,16 @@
         <v>64</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>44</v>
@@ -8721,7 +8724,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8747,16 +8750,16 @@
         <v>144</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>44</v>
@@ -8781,13 +8784,13 @@
         <v>44</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>44</v>
@@ -8805,7 +8808,7 @@
         <v>44</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -8823,13 +8826,13 @@
         <v>44</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>44</v>
@@ -8837,7 +8840,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8949,7 +8952,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9063,7 +9066,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9086,19 +9089,19 @@
         <v>53</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>44</v>
@@ -9147,7 +9150,7 @@
         <v>44</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
@@ -9165,10 +9168,10 @@
         <v>44</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>44</v>
@@ -9179,7 +9182,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9291,7 +9294,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9405,7 +9408,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9431,23 +9434,23 @@
         <v>66</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="R63" t="s" s="2">
         <v>44</v>
@@ -9489,7 +9492,7 @@
         <v>44</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
@@ -9507,10 +9510,10 @@
         <v>44</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>44</v>
@@ -9521,7 +9524,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9547,13 +9550,13 @@
         <v>54</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9603,7 +9606,7 @@
         <v>44</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
@@ -9621,10 +9624,10 @@
         <v>44</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>44</v>
@@ -9635,7 +9638,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9661,14 +9664,14 @@
         <v>72</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>44</v>
@@ -9717,7 +9720,7 @@
         <v>44</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
@@ -9735,10 +9738,10 @@
         <v>44</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>44</v>
@@ -9749,7 +9752,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9775,14 +9778,14 @@
         <v>54</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>44</v>
@@ -9831,7 +9834,7 @@
         <v>44</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
@@ -9849,10 +9852,10 @@
         <v>44</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>44</v>
@@ -9863,7 +9866,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9886,19 +9889,19 @@
         <v>53</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>44</v>
@@ -9947,7 +9950,7 @@
         <v>44</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
@@ -9965,10 +9968,10 @@
         <v>44</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>44</v>
@@ -9979,7 +9982,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10005,16 +10008,16 @@
         <v>54</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>44</v>
@@ -10063,7 +10066,7 @@
         <v>44</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
@@ -10081,10 +10084,10 @@
         <v>44</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>44</v>
@@ -10095,7 +10098,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10121,10 +10124,10 @@
         <v>72</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -10132,7 +10135,7 @@
         <v>44</v>
       </c>
       <c r="P69" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q69" t="s" s="2">
         <v>44</v>
@@ -10156,10 +10159,10 @@
         <v>138</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>44</v>
@@ -10177,7 +10180,7 @@
         <v>44</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
@@ -10192,16 +10195,16 @@
         <v>64</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>44</v>
@@ -10209,7 +10212,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10232,70 +10235,70 @@
         <v>53</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P70" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="Q70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE70" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P70" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="Q70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
@@ -10310,13 +10313,13 @@
         <v>64</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>44</v>
@@ -10327,11 +10330,11 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -10353,13 +10356,13 @@
         <v>144</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -10385,13 +10388,13 @@
         <v>44</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>44</v>
@@ -10409,7 +10412,7 @@
         <v>44</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
@@ -10424,24 +10427,24 @@
         <v>64</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10553,7 +10556,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10667,7 +10670,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10690,19 +10693,19 @@
         <v>53</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>44</v>
@@ -10751,7 +10754,7 @@
         <v>44</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>42</v>
@@ -10769,10 +10772,10 @@
         <v>44</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>44</v>
@@ -10783,7 +10786,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10895,7 +10898,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11009,7 +11012,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11035,23 +11038,23 @@
         <v>66</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="R77" t="s" s="2">
         <v>44</v>
@@ -11093,7 +11096,7 @@
         <v>44</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>42</v>
@@ -11111,10 +11114,10 @@
         <v>44</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>44</v>
@@ -11125,7 +11128,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11151,13 +11154,13 @@
         <v>54</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -11207,7 +11210,7 @@
         <v>44</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>42</v>
@@ -11225,10 +11228,10 @@
         <v>44</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>44</v>
@@ -11239,7 +11242,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11265,14 +11268,14 @@
         <v>72</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>44</v>
@@ -11321,7 +11324,7 @@
         <v>44</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>42</v>
@@ -11339,10 +11342,10 @@
         <v>44</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>44</v>
@@ -11353,7 +11356,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11379,14 +11382,14 @@
         <v>54</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>44</v>
@@ -11435,7 +11438,7 @@
         <v>44</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>42</v>
@@ -11453,10 +11456,10 @@
         <v>44</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>44</v>
@@ -11467,7 +11470,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11490,19 +11493,19 @@
         <v>53</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>44</v>
@@ -11551,7 +11554,7 @@
         <v>44</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>42</v>
@@ -11569,10 +11572,10 @@
         <v>44</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>44</v>
@@ -11583,7 +11586,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11609,16 +11612,16 @@
         <v>54</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>44</v>
@@ -11667,7 +11670,7 @@
         <v>44</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>42</v>
@@ -11685,10 +11688,10 @@
         <v>44</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>44</v>
@@ -11699,11 +11702,11 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11725,13 +11728,13 @@
         <v>144</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11757,13 +11760,13 @@
         <v>44</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>44</v>
@@ -11781,7 +11784,7 @@
         <v>44</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>42</v>
@@ -11790,7 +11793,7 @@
         <v>43</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>64</v>
@@ -11799,21 +11802,21 @@
         <v>44</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11925,7 +11928,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12039,7 +12042,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12062,19 +12065,19 @@
         <v>53</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>44</v>
@@ -12123,7 +12126,7 @@
         <v>44</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>42</v>
@@ -12141,10 +12144,10 @@
         <v>44</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>44</v>
@@ -12155,7 +12158,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12267,7 +12270,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12381,7 +12384,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12407,23 +12410,23 @@
         <v>66</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P89" s="2"/>
       <c r="Q89" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="R89" t="s" s="2">
         <v>44</v>
@@ -12465,7 +12468,7 @@
         <v>44</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>42</v>
@@ -12483,10 +12486,10 @@
         <v>44</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>44</v>
@@ -12497,7 +12500,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12523,13 +12526,13 @@
         <v>54</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -12579,7 +12582,7 @@
         <v>44</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>42</v>
@@ -12597,10 +12600,10 @@
         <v>44</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>44</v>
@@ -12611,7 +12614,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12637,14 +12640,14 @@
         <v>72</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>44</v>
@@ -12693,7 +12696,7 @@
         <v>44</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>42</v>
@@ -12711,10 +12714,10 @@
         <v>44</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>44</v>
@@ -12725,7 +12728,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12751,14 +12754,14 @@
         <v>54</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>44</v>
@@ -12807,7 +12810,7 @@
         <v>44</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>42</v>
@@ -12825,10 +12828,10 @@
         <v>44</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>44</v>
@@ -12839,7 +12842,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12862,19 +12865,19 @@
         <v>53</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>44</v>
@@ -12923,7 +12926,7 @@
         <v>44</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>42</v>
@@ -12941,10 +12944,10 @@
         <v>44</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>44</v>
@@ -12955,7 +12958,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12981,16 +12984,16 @@
         <v>54</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>44</v>
@@ -13039,7 +13042,7 @@
         <v>44</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>42</v>
@@ -13057,10 +13060,10 @@
         <v>44</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>44</v>
@@ -13071,7 +13074,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13094,17 +13097,17 @@
         <v>53</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>44</v>
@@ -13153,7 +13156,7 @@
         <v>44</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>42</v>
@@ -13171,10 +13174,10 @@
         <v>44</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>44</v>
@@ -13185,7 +13188,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13208,13 +13211,13 @@
         <v>53</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -13265,7 +13268,7 @@
         <v>44</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>52</v>
@@ -13280,24 +13283,24 @@
         <v>64</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13409,7 +13412,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13523,7 +13526,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13549,13 +13552,13 @@
         <v>54</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
@@ -13605,7 +13608,7 @@
         <v>44</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>42</v>
@@ -13614,7 +13617,7 @@
         <v>52</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>64</v>
@@ -13637,7 +13640,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13663,13 +13666,13 @@
         <v>66</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
@@ -13698,10 +13701,10 @@
         <v>149</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Z100" t="s" s="2">
         <v>44</v>
@@ -13719,7 +13722,7 @@
         <v>44</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>42</v>
@@ -13751,7 +13754,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13777,13 +13780,13 @@
         <v>110</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
@@ -13833,7 +13836,7 @@
         <v>44</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>42</v>
@@ -13865,7 +13868,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13891,13 +13894,13 @@
         <v>54</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
@@ -13947,7 +13950,7 @@
         <v>44</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>42</v>
@@ -13979,11 +13982,11 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
@@ -14002,13 +14005,13 @@
         <v>53</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -14059,7 +14062,7 @@
         <v>44</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>42</v>
@@ -14074,24 +14077,24 @@
         <v>64</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14203,7 +14206,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14317,7 +14320,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14343,13 +14346,13 @@
         <v>54</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
@@ -14399,7 +14402,7 @@
         <v>44</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>42</v>
@@ -14408,7 +14411,7 @@
         <v>52</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>64</v>
@@ -14431,7 +14434,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14457,13 +14460,13 @@
         <v>66</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
@@ -14492,10 +14495,10 @@
         <v>149</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Z107" t="s" s="2">
         <v>44</v>
@@ -14513,7 +14516,7 @@
         <v>44</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>42</v>
@@ -14545,7 +14548,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14571,13 +14574,13 @@
         <v>110</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
@@ -14627,7 +14630,7 @@
         <v>44</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>42</v>
@@ -14659,7 +14662,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14685,13 +14688,13 @@
         <v>54</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
@@ -14741,7 +14744,7 @@
         <v>44</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>42</v>
@@ -14773,11 +14776,11 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
@@ -14796,13 +14799,13 @@
         <v>53</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -14853,7 +14856,7 @@
         <v>44</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>42</v>
@@ -14868,24 +14871,24 @@
         <v>64</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14908,13 +14911,13 @@
         <v>53</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -14941,13 +14944,13 @@
         <v>44</v>
       </c>
       <c r="W111" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Z111" t="s" s="2">
         <v>44</v>
@@ -14965,7 +14968,7 @@
         <v>44</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>42</v>
@@ -14986,22 +14989,22 @@
         <v>44</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
@@ -15020,13 +15023,13 @@
         <v>53</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -15077,7 +15080,7 @@
         <v>44</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>42</v>
@@ -15092,28 +15095,28 @@
         <v>64</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
@@ -15132,16 +15135,16 @@
         <v>53</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
@@ -15191,7 +15194,7 @@
         <v>44</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>42</v>
@@ -15206,24 +15209,24 @@
         <v>64</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15335,7 +15338,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15449,7 +15452,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15475,13 +15478,13 @@
         <v>54</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
@@ -15531,7 +15534,7 @@
         <v>44</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>42</v>
@@ -15540,7 +15543,7 @@
         <v>52</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AI116" t="s" s="2">
         <v>64</v>
@@ -15563,7 +15566,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -15589,13 +15592,13 @@
         <v>66</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
@@ -15624,10 +15627,10 @@
         <v>149</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Z117" t="s" s="2">
         <v>44</v>
@@ -15645,7 +15648,7 @@
         <v>44</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>42</v>
@@ -15677,7 +15680,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -15703,13 +15706,13 @@
         <v>110</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
@@ -15759,7 +15762,7 @@
         <v>44</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>42</v>
@@ -15791,7 +15794,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -15817,13 +15820,13 @@
         <v>54</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
@@ -15873,7 +15876,7 @@
         <v>44</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>42</v>
@@ -15905,11 +15908,11 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
@@ -15931,13 +15934,13 @@
         <v>144</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
@@ -15963,13 +15966,13 @@
         <v>44</v>
       </c>
       <c r="W120" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Z120" t="s" s="2">
         <v>44</v>
@@ -15987,7 +15990,7 @@
         <v>44</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>42</v>
@@ -16002,16 +16005,16 @@
         <v>64</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AN120" t="s" s="2">
         <v>44</v>
@@ -16019,11 +16022,11 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
@@ -16042,16 +16045,16 @@
         <v>53</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" t="s" s="2">
@@ -16101,7 +16104,7 @@
         <v>44</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>42</v>
@@ -16116,16 +16119,16 @@
         <v>64</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AN121" t="s" s="2">
         <v>44</v>
@@ -16133,7 +16136,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16245,7 +16248,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16359,7 +16362,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16385,13 +16388,13 @@
         <v>54</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
@@ -16441,7 +16444,7 @@
         <v>44</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>42</v>
@@ -16450,7 +16453,7 @@
         <v>52</v>
       </c>
       <c r="AH124" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AI124" t="s" s="2">
         <v>64</v>
@@ -16473,7 +16476,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -16499,13 +16502,13 @@
         <v>66</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
@@ -16534,10 +16537,10 @@
         <v>149</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Z125" t="s" s="2">
         <v>44</v>
@@ -16555,7 +16558,7 @@
         <v>44</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>42</v>
@@ -16587,7 +16590,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -16613,13 +16616,13 @@
         <v>110</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
@@ -16669,7 +16672,7 @@
         <v>44</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>42</v>
@@ -16701,7 +16704,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -16727,13 +16730,13 @@
         <v>54</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
@@ -16783,7 +16786,7 @@
         <v>44</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>42</v>
@@ -16815,7 +16818,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -16841,10 +16844,10 @@
         <v>144</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M128" s="2"/>
       <c r="N128" s="2"/>
@@ -16871,13 +16874,13 @@
         <v>44</v>
       </c>
       <c r="W128" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="X128" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="Y128" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="Z128" t="s" s="2">
         <v>44</v>
@@ -16895,7 +16898,7 @@
         <v>44</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>42</v>
@@ -16916,10 +16919,10 @@
         <v>44</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AN128" t="s" s="2">
         <v>44</v>
@@ -16927,7 +16930,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -17039,7 +17042,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -17153,7 +17156,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -17176,19 +17179,19 @@
         <v>53</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O131" t="s" s="2">
         <v>44</v>
@@ -17237,7 +17240,7 @@
         <v>44</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>42</v>
@@ -17255,10 +17258,10 @@
         <v>44</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>44</v>
@@ -17269,7 +17272,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -17381,7 +17384,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -17495,7 +17498,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17521,16 +17524,16 @@
         <v>66</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O134" t="s" s="2">
         <v>44</v>
@@ -17579,7 +17582,7 @@
         <v>44</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>42</v>
@@ -17597,10 +17600,10 @@
         <v>44</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AM134" t="s" s="2">
         <v>44</v>
@@ -17611,7 +17614,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -17637,13 +17640,13 @@
         <v>54</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" t="s" s="2">
@@ -17693,7 +17696,7 @@
         <v>44</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>42</v>
@@ -17711,10 +17714,10 @@
         <v>44</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AM135" t="s" s="2">
         <v>44</v>
@@ -17725,7 +17728,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -17751,14 +17754,14 @@
         <v>72</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M136" s="2"/>
       <c r="N136" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>44</v>
@@ -17807,7 +17810,7 @@
         <v>44</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>42</v>
@@ -17825,10 +17828,10 @@
         <v>44</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AM136" t="s" s="2">
         <v>44</v>
@@ -17839,7 +17842,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -17865,14 +17868,14 @@
         <v>54</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M137" s="2"/>
       <c r="N137" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O137" t="s" s="2">
         <v>44</v>
@@ -17921,7 +17924,7 @@
         <v>44</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>42</v>
@@ -17939,10 +17942,10 @@
         <v>44</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AM137" t="s" s="2">
         <v>44</v>
@@ -17953,7 +17956,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -17976,19 +17979,19 @@
         <v>53</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O138" t="s" s="2">
         <v>44</v>
@@ -18037,7 +18040,7 @@
         <v>44</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>42</v>
@@ -18055,10 +18058,10 @@
         <v>44</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AM138" t="s" s="2">
         <v>44</v>
@@ -18069,7 +18072,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -18095,16 +18098,16 @@
         <v>54</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>44</v>
@@ -18153,7 +18156,7 @@
         <v>44</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>42</v>
@@ -18171,10 +18174,10 @@
         <v>44</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>44</v>
@@ -18185,7 +18188,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -18208,13 +18211,13 @@
         <v>53</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
@@ -18265,7 +18268,7 @@
         <v>44</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>42</v>
@@ -18286,10 +18289,10 @@
         <v>44</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AM140" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AN140" t="s" s="2">
         <v>44</v>
@@ -18297,7 +18300,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -18409,7 +18412,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -18523,7 +18526,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -18549,13 +18552,13 @@
         <v>54</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" t="s" s="2">
@@ -18605,7 +18608,7 @@
         <v>44</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>42</v>
@@ -18614,7 +18617,7 @@
         <v>52</v>
       </c>
       <c r="AH143" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AI143" t="s" s="2">
         <v>64</v>
@@ -18637,7 +18640,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -18663,13 +18666,13 @@
         <v>66</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" t="s" s="2">
@@ -18698,10 +18701,10 @@
         <v>149</v>
       </c>
       <c r="X144" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Z144" t="s" s="2">
         <v>44</v>
@@ -18719,7 +18722,7 @@
         <v>44</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>42</v>
@@ -18751,7 +18754,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -18777,13 +18780,13 @@
         <v>110</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" t="s" s="2">
@@ -18833,7 +18836,7 @@
         <v>44</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>42</v>
@@ -18865,7 +18868,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -18891,13 +18894,13 @@
         <v>54</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" t="s" s="2">
@@ -18947,7 +18950,7 @@
         <v>44</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>42</v>
@@ -18979,7 +18982,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -19005,13 +19008,13 @@
         <v>144</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="N147" s="2"/>
       <c r="O147" t="s" s="2">
@@ -19037,13 +19040,13 @@
         <v>44</v>
       </c>
       <c r="W147" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="X147" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="Y147" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="Z147" t="s" s="2">
         <v>44</v>
@@ -19061,7 +19064,7 @@
         <v>44</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>42</v>
@@ -19076,16 +19079,16 @@
         <v>64</v>
       </c>
       <c r="AJ147" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AK147" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AM147" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AN147" t="s" s="2">
         <v>44</v>
@@ -19093,7 +19096,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -19205,7 +19208,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -19319,7 +19322,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -19342,19 +19345,19 @@
         <v>53</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O150" t="s" s="2">
         <v>44</v>
@@ -19403,7 +19406,7 @@
         <v>44</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>42</v>
@@ -19421,10 +19424,10 @@
         <v>44</v>
       </c>
       <c r="AK150" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AL150" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AM150" t="s" s="2">
         <v>44</v>
@@ -19435,7 +19438,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -19547,7 +19550,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -19661,7 +19664,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -19687,23 +19690,23 @@
         <v>66</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O153" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P153" s="2"/>
       <c r="Q153" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="R153" t="s" s="2">
         <v>44</v>
@@ -19745,7 +19748,7 @@
         <v>44</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>42</v>
@@ -19763,10 +19766,10 @@
         <v>44</v>
       </c>
       <c r="AK153" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AM153" t="s" s="2">
         <v>44</v>
@@ -19777,7 +19780,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -19803,13 +19806,13 @@
         <v>54</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" t="s" s="2">
@@ -19859,7 +19862,7 @@
         <v>44</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>42</v>
@@ -19877,10 +19880,10 @@
         <v>44</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AM154" t="s" s="2">
         <v>44</v>
@@ -19891,7 +19894,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -19917,14 +19920,14 @@
         <v>72</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M155" s="2"/>
       <c r="N155" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O155" t="s" s="2">
         <v>44</v>
@@ -19973,7 +19976,7 @@
         <v>44</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>42</v>
@@ -19991,10 +19994,10 @@
         <v>44</v>
       </c>
       <c r="AK155" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AM155" t="s" s="2">
         <v>44</v>
@@ -20005,7 +20008,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -20031,14 +20034,14 @@
         <v>54</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M156" s="2"/>
       <c r="N156" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O156" t="s" s="2">
         <v>44</v>
@@ -20087,7 +20090,7 @@
         <v>44</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>42</v>
@@ -20105,10 +20108,10 @@
         <v>44</v>
       </c>
       <c r="AK156" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AM156" t="s" s="2">
         <v>44</v>
@@ -20119,7 +20122,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -20142,19 +20145,19 @@
         <v>53</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O157" t="s" s="2">
         <v>44</v>
@@ -20203,7 +20206,7 @@
         <v>44</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>42</v>
@@ -20221,10 +20224,10 @@
         <v>44</v>
       </c>
       <c r="AK157" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AL157" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AM157" t="s" s="2">
         <v>44</v>
@@ -20235,7 +20238,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -20261,16 +20264,16 @@
         <v>54</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>44</v>
@@ -20319,7 +20322,7 @@
         <v>44</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>42</v>
@@ -20337,10 +20340,10 @@
         <v>44</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AL158" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AM158" t="s" s="2">
         <v>44</v>
@@ -20351,7 +20354,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -20374,16 +20377,16 @@
         <v>53</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" t="s" s="2">
@@ -20433,7 +20436,7 @@
         <v>44</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>42</v>
@@ -20448,16 +20451,16 @@
         <v>64</v>
       </c>
       <c r="AJ159" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AM159" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AN159" t="s" s="2">
         <v>44</v>
@@ -20465,7 +20468,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -20577,7 +20580,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -20691,7 +20694,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -20717,13 +20720,13 @@
         <v>54</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" t="s" s="2">
@@ -20773,7 +20776,7 @@
         <v>44</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>42</v>
@@ -20782,7 +20785,7 @@
         <v>52</v>
       </c>
       <c r="AH162" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AI162" t="s" s="2">
         <v>64</v>
@@ -20805,7 +20808,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -20831,13 +20834,13 @@
         <v>66</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" t="s" s="2">
@@ -20866,10 +20869,10 @@
         <v>149</v>
       </c>
       <c r="X163" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Y163" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Z163" t="s" s="2">
         <v>44</v>
@@ -20887,7 +20890,7 @@
         <v>44</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>42</v>
@@ -20919,7 +20922,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -20945,13 +20948,13 @@
         <v>110</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N164" s="2"/>
       <c r="O164" t="s" s="2">
@@ -21001,7 +21004,7 @@
         <v>44</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>42</v>
@@ -21033,7 +21036,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -21059,13 +21062,13 @@
         <v>54</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N165" s="2"/>
       <c r="O165" t="s" s="2">
@@ -21115,7 +21118,7 @@
         <v>44</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>42</v>
@@ -21147,7 +21150,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -21170,13 +21173,13 @@
         <v>44</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="M166" s="2"/>
       <c r="N166" s="2"/>
@@ -21227,7 +21230,7 @@
         <v>44</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>42</v>
@@ -21242,13 +21245,13 @@
         <v>64</v>
       </c>
       <c r="AJ166" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AK166" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AL166" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AM166" t="s" s="2">
         <v>44</v>
@@ -21259,7 +21262,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -21371,7 +21374,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -21485,7 +21488,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -21511,13 +21514,13 @@
         <v>54</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N169" s="2"/>
       <c r="O169" t="s" s="2">
@@ -21567,7 +21570,7 @@
         <v>44</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>42</v>
@@ -21576,7 +21579,7 @@
         <v>52</v>
       </c>
       <c r="AH169" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AI169" t="s" s="2">
         <v>64</v>
@@ -21599,7 +21602,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -21625,13 +21628,13 @@
         <v>66</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N170" s="2"/>
       <c r="O170" t="s" s="2">
@@ -21660,10 +21663,10 @@
         <v>149</v>
       </c>
       <c r="X170" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Y170" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Z170" t="s" s="2">
         <v>44</v>
@@ -21681,7 +21684,7 @@
         <v>44</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>42</v>
@@ -21713,7 +21716,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -21739,13 +21742,13 @@
         <v>110</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N171" s="2"/>
       <c r="O171" t="s" s="2">
@@ -21795,7 +21798,7 @@
         <v>44</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>42</v>
@@ -21827,7 +21830,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -21853,13 +21856,13 @@
         <v>54</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N172" s="2"/>
       <c r="O172" t="s" s="2">
@@ -21909,7 +21912,7 @@
         <v>44</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>42</v>
@@ -21941,11 +21944,11 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" t="s" s="2">
@@ -21964,16 +21967,16 @@
         <v>44</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" t="s" s="2">
@@ -22023,7 +22026,7 @@
         <v>44</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>42</v>
@@ -22038,13 +22041,13 @@
         <v>64</v>
       </c>
       <c r="AJ173" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AK173" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AL173" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AM173" t="s" s="2">
         <v>44</v>
@@ -22055,7 +22058,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -22078,16 +22081,16 @@
         <v>53</v>
       </c>
       <c r="J174" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="N174" s="2"/>
       <c r="O174" t="s" s="2">
@@ -22137,7 +22140,7 @@
         <v>44</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>42</v>
@@ -22155,10 +22158,10 @@
         <v>44</v>
       </c>
       <c r="AK174" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AL174" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AM174" t="s" s="2">
         <v>44</v>
@@ -22169,7 +22172,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -22281,7 +22284,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -22395,7 +22398,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -22421,13 +22424,13 @@
         <v>54</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N177" s="2"/>
       <c r="O177" t="s" s="2">
@@ -22477,7 +22480,7 @@
         <v>44</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>42</v>
@@ -22486,7 +22489,7 @@
         <v>52</v>
       </c>
       <c r="AH177" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AI177" t="s" s="2">
         <v>64</v>
@@ -22509,7 +22512,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -22535,13 +22538,13 @@
         <v>66</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N178" s="2"/>
       <c r="O178" t="s" s="2">
@@ -22570,10 +22573,10 @@
         <v>149</v>
       </c>
       <c r="X178" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Y178" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Z178" t="s" s="2">
         <v>44</v>
@@ -22591,7 +22594,7 @@
         <v>44</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>42</v>
@@ -22623,7 +22626,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -22649,13 +22652,13 @@
         <v>110</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N179" s="2"/>
       <c r="O179" t="s" s="2">
@@ -22705,7 +22708,7 @@
         <v>44</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>42</v>
@@ -22737,7 +22740,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -22763,13 +22766,13 @@
         <v>54</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N180" s="2"/>
       <c r="O180" t="s" s="2">
@@ -22819,7 +22822,7 @@
         <v>44</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>42</v>
@@ -22851,11 +22854,11 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" t="s" s="2">
@@ -22877,16 +22880,16 @@
         <v>144</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="N181" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="O181" t="s" s="2">
         <v>44</v>
@@ -22911,13 +22914,13 @@
         <v>44</v>
       </c>
       <c r="W181" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="X181" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="Y181" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="Z181" t="s" s="2">
         <v>44</v>
@@ -22935,7 +22938,7 @@
         <v>44</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AF181" t="s" s="2">
         <v>42</v>
@@ -22953,21 +22956,21 @@
         <v>44</v>
       </c>
       <c r="AK181" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AL181" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AM181" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN181" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -23079,7 +23082,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -23193,7 +23196,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -23216,19 +23219,19 @@
         <v>53</v>
       </c>
       <c r="J184" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N184" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O184" t="s" s="2">
         <v>44</v>
@@ -23277,7 +23280,7 @@
         <v>44</v>
       </c>
       <c r="AE184" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF184" t="s" s="2">
         <v>42</v>
@@ -23295,10 +23298,10 @@
         <v>44</v>
       </c>
       <c r="AK184" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AL184" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AM184" t="s" s="2">
         <v>44</v>
@@ -23309,7 +23312,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -23421,7 +23424,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -23535,7 +23538,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
@@ -23561,23 +23564,23 @@
         <v>66</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N187" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O187" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P187" s="2"/>
       <c r="Q187" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="R187" t="s" s="2">
         <v>44</v>
@@ -23619,7 +23622,7 @@
         <v>44</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF187" t="s" s="2">
         <v>42</v>
@@ -23637,10 +23640,10 @@
         <v>44</v>
       </c>
       <c r="AK187" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AL187" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AM187" t="s" s="2">
         <v>44</v>
@@ -23651,7 +23654,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -23677,13 +23680,13 @@
         <v>54</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N188" s="2"/>
       <c r="O188" t="s" s="2">
@@ -23733,7 +23736,7 @@
         <v>44</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>42</v>
@@ -23751,10 +23754,10 @@
         <v>44</v>
       </c>
       <c r="AK188" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL188" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AM188" t="s" s="2">
         <v>44</v>
@@ -23765,7 +23768,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -23791,14 +23794,14 @@
         <v>72</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M189" s="2"/>
       <c r="N189" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O189" t="s" s="2">
         <v>44</v>
@@ -23847,7 +23850,7 @@
         <v>44</v>
       </c>
       <c r="AE189" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF189" t="s" s="2">
         <v>42</v>
@@ -23865,10 +23868,10 @@
         <v>44</v>
       </c>
       <c r="AK189" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AL189" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AM189" t="s" s="2">
         <v>44</v>
@@ -23879,7 +23882,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -23905,14 +23908,14 @@
         <v>54</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M190" s="2"/>
       <c r="N190" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O190" t="s" s="2">
         <v>44</v>
@@ -23961,7 +23964,7 @@
         <v>44</v>
       </c>
       <c r="AE190" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AF190" t="s" s="2">
         <v>42</v>
@@ -23979,10 +23982,10 @@
         <v>44</v>
       </c>
       <c r="AK190" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AL190" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AM190" t="s" s="2">
         <v>44</v>
@@ -23993,7 +23996,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -24016,19 +24019,19 @@
         <v>53</v>
       </c>
       <c r="J191" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N191" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O191" t="s" s="2">
         <v>44</v>
@@ -24077,7 +24080,7 @@
         <v>44</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>42</v>
@@ -24095,10 +24098,10 @@
         <v>44</v>
       </c>
       <c r="AK191" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AL191" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AM191" t="s" s="2">
         <v>44</v>
@@ -24109,7 +24112,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -24135,16 +24138,16 @@
         <v>54</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N192" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O192" t="s" s="2">
         <v>44</v>
@@ -24193,7 +24196,7 @@
         <v>44</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF192" t="s" s="2">
         <v>42</v>
@@ -24211,10 +24214,10 @@
         <v>44</v>
       </c>
       <c r="AK192" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AL192" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AM192" t="s" s="2">
         <v>44</v>
@@ -24225,7 +24228,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -24248,13 +24251,13 @@
         <v>44</v>
       </c>
       <c r="J193" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="K193" t="s" s="2">
         <v>12</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="M193" s="2"/>
       <c r="N193" s="2"/>
@@ -24305,7 +24308,7 @@
         <v>44</v>
       </c>
       <c r="AE193" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AF193" t="s" s="2">
         <v>42</v>
@@ -24320,24 +24323,24 @@
         <v>64</v>
       </c>
       <c r="AJ193" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AK193" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AL193" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AM193" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN193" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -24449,7 +24452,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -24563,7 +24566,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -24586,16 +24589,16 @@
         <v>53</v>
       </c>
       <c r="J196" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="N196" s="2"/>
       <c r="O196" t="s" s="2">
@@ -24645,7 +24648,7 @@
         <v>44</v>
       </c>
       <c r="AE196" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AF196" t="s" s="2">
         <v>42</v>
@@ -24666,7 +24669,7 @@
         <v>95</v>
       </c>
       <c r="AL196" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AM196" t="s" s="2">
         <v>44</v>
@@ -24677,7 +24680,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -24700,13 +24703,13 @@
         <v>53</v>
       </c>
       <c r="J197" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="M197" s="2"/>
       <c r="N197" s="2"/>
@@ -24757,7 +24760,7 @@
         <v>44</v>
       </c>
       <c r="AE197" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AF197" t="s" s="2">
         <v>42</v>
@@ -24778,7 +24781,7 @@
         <v>95</v>
       </c>
       <c r="AL197" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AM197" t="s" s="2">
         <v>44</v>
@@ -24789,7 +24792,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -24812,13 +24815,13 @@
         <v>53</v>
       </c>
       <c r="J198" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="K198" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="M198" s="2"/>
       <c r="N198" s="2"/>
@@ -24869,7 +24872,7 @@
         <v>44</v>
       </c>
       <c r="AE198" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AF198" t="s" s="2">
         <v>52</v>
@@ -24890,7 +24893,7 @@
         <v>95</v>
       </c>
       <c r="AL198" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AM198" t="s" s="2">
         <v>44</v>
@@ -24901,7 +24904,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -24927,10 +24930,10 @@
         <v>54</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="M199" s="2"/>
       <c r="N199" s="2"/>
@@ -24981,7 +24984,7 @@
         <v>44</v>
       </c>
       <c r="AE199" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AF199" t="s" s="2">
         <v>42</v>
@@ -24999,10 +25002,10 @@
         <v>44</v>
       </c>
       <c r="AK199" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AL199" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AM199" t="s" s="2">
         <v>44</v>
@@ -25013,7 +25016,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -25036,16 +25039,16 @@
         <v>44</v>
       </c>
       <c r="J200" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="N200" s="2"/>
       <c r="O200" t="s" s="2">
@@ -25095,7 +25098,7 @@
         <v>44</v>
       </c>
       <c r="AE200" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AF200" t="s" s="2">
         <v>42</v>
@@ -25110,13 +25113,13 @@
         <v>64</v>
       </c>
       <c r="AJ200" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AK200" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AL200" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AM200" t="s" s="2">
         <v>44</v>

--- a/fhir/indisa/StructureDefinition-ProfileServiceRequestKlinic.xlsx
+++ b/fhir/indisa/StructureDefinition-ProfileServiceRequestKlinic.xlsx
@@ -658,7 +658,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|ServiceRequest|MedicationRequest)
+    <t xml:space="preserve">Reference(ServiceRequest|MedicationRequest)
 </t>
   </si>
   <si>
@@ -1237,7 +1237,7 @@
     <t>ServiceRequest.code.coding.system</t>
   </si>
   <si>
-    <t>http://digitalware.com.co/salud/fhir/CodeSystem/codes-fonasa</t>
+    <t>https://digitalware-klinic.github.io/fhir/indisa/CodeSystem-CodesFonasa</t>
   </si>
   <si>
     <t>ServiceRequest.code.coding.version</t>
@@ -1339,7 +1339,7 @@
     <t>ServiceRequest.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group|Location|Device)
+    <t xml:space="preserve">Reference(Patient|Location)
 </t>
   </si>
   <si>
@@ -1528,7 +1528,7 @@
 orderer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Patient|RelatedPerson|Device)
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Patient)
 </t>
   </si>
   <si>
@@ -1615,7 +1615,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|HealthcareService|Patient|Device|RelatedPerson)
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|HealthcareService|Patient)
 </t>
   </si>
   <si>
@@ -2288,46 +2288,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="47.13671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="20.578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="20.08984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="42.28125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.07421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="92.15234375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="92.2890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="67.796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="35.71484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="66.6171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="33.9375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="85.41796875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="163.44140625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="66.88671875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="27.73828125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="84.56640625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="157.5625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="61.04296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/fhir/indisa/StructureDefinition-ProfileServiceRequestKlinic.xlsx
+++ b/fhir/indisa/StructureDefinition-ProfileServiceRequestKlinic.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7199" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7199" uniqueCount="683">
   <si>
     <t>Path</t>
   </si>
@@ -513,7 +513,7 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>ttps://example.org/servicerequest-identifiers</t>
+    <t>https://example.org/servicerequest-identifiers</t>
   </si>
   <si>
     <t>http://www.acme.com/identifiers/patient</t>
@@ -842,9 +842,6 @@
   </si>
   <si>
     <t>ServiceRequest.requisition.system</t>
-  </si>
-  <si>
-    <t>https://example.org/servicerequest-identifiers</t>
   </si>
   <si>
     <t>ServiceRequest.requisition.value</t>
@@ -8082,7 +8079,7 @@
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>265</v>
+        <v>159</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>44</v>
@@ -8156,7 +8153,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8270,7 +8267,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8382,7 +8379,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8496,7 +8493,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8522,13 +8519,13 @@
         <v>72</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8557,11 +8554,11 @@
         <v>138</v>
       </c>
       <c r="X55" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="Y55" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="Y55" t="s" s="2">
-        <v>274</v>
-      </c>
       <c r="Z55" t="s" s="2">
         <v>44</v>
       </c>
@@ -8578,7 +8575,7 @@
         <v>44</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>52</v>
@@ -8593,24 +8590,24 @@
         <v>64</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AK55" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="AK55" t="s" s="2">
+      <c r="AL55" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AL55" t="s" s="2">
+      <c r="AM55" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AM55" t="s" s="2">
+      <c r="AN55" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>279</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8636,13 +8633,13 @@
         <v>72</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8671,11 +8668,11 @@
         <v>138</v>
       </c>
       <c r="X56" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="Y56" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="Y56" t="s" s="2">
-        <v>285</v>
-      </c>
       <c r="Z56" t="s" s="2">
         <v>44</v>
       </c>
@@ -8692,7 +8689,7 @@
         <v>44</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>52</v>
@@ -8707,16 +8704,16 @@
         <v>64</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AL56" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>44</v>
@@ -8724,7 +8721,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8750,16 +8747,16 @@
         <v>144</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>44</v>
@@ -8784,14 +8781,14 @@
         <v>44</v>
       </c>
       <c r="W57" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="X57" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="X57" t="s" s="2">
+      <c r="Y57" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="Y57" t="s" s="2">
-        <v>296</v>
-      </c>
       <c r="Z57" t="s" s="2">
         <v>44</v>
       </c>
@@ -8808,7 +8805,7 @@
         <v>44</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -8826,13 +8823,13 @@
         <v>44</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AL57" t="s" s="2">
-        <v>298</v>
-      </c>
       <c r="AM57" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>44</v>
@@ -8840,7 +8837,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8952,7 +8949,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9066,7 +9063,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9089,19 +9086,19 @@
         <v>53</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="K60" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="K60" t="s" s="2">
+      <c r="L60" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>44</v>
@@ -9150,7 +9147,7 @@
         <v>44</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
@@ -9168,10 +9165,10 @@
         <v>44</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>44</v>
@@ -9182,7 +9179,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9294,7 +9291,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9408,7 +9405,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9434,65 +9431,65 @@
         <v>66</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE63" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="R63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
@@ -9510,10 +9507,10 @@
         <v>44</v>
       </c>
       <c r="AK63" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>44</v>
@@ -9524,7 +9521,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9550,13 +9547,13 @@
         <v>54</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9606,7 +9603,7 @@
         <v>44</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
@@ -9624,10 +9621,10 @@
         <v>44</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AL64" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>44</v>
@@ -9638,7 +9635,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9664,14 +9661,14 @@
         <v>72</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>44</v>
@@ -9720,7 +9717,7 @@
         <v>44</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
@@ -9738,10 +9735,10 @@
         <v>44</v>
       </c>
       <c r="AK65" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AL65" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>44</v>
@@ -9752,7 +9749,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9778,14 +9775,14 @@
         <v>54</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>44</v>
@@ -9834,7 +9831,7 @@
         <v>44</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
@@ -9852,10 +9849,10 @@
         <v>44</v>
       </c>
       <c r="AK66" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AL66" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>44</v>
@@ -9866,7 +9863,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9889,19 +9886,19 @@
         <v>53</v>
       </c>
       <c r="J67" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="K67" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="K67" t="s" s="2">
+      <c r="L67" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>44</v>
@@ -9950,7 +9947,7 @@
         <v>44</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
@@ -9968,10 +9965,10 @@
         <v>44</v>
       </c>
       <c r="AK67" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AL67" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>44</v>
@@ -9982,7 +9979,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10008,16 +10005,16 @@
         <v>54</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>44</v>
@@ -10066,7 +10063,7 @@
         <v>44</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
@@ -10084,10 +10081,10 @@
         <v>44</v>
       </c>
       <c r="AK68" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AL68" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>44</v>
@@ -10098,7 +10095,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10124,10 +10121,10 @@
         <v>72</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -10135,7 +10132,7 @@
         <v>44</v>
       </c>
       <c r="P69" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="Q69" t="s" s="2">
         <v>44</v>
@@ -10159,11 +10156,11 @@
         <v>138</v>
       </c>
       <c r="X69" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="Y69" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="Y69" t="s" s="2">
-        <v>364</v>
-      </c>
       <c r="Z69" t="s" s="2">
         <v>44</v>
       </c>
@@ -10180,7 +10177,7 @@
         <v>44</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
@@ -10195,16 +10192,16 @@
         <v>64</v>
       </c>
       <c r="AJ69" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AK69" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AK69" t="s" s="2">
+      <c r="AL69" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="AL69" t="s" s="2">
+      <c r="AM69" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>44</v>
@@ -10212,7 +10209,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10235,26 +10232,26 @@
         <v>53</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="N70" t="s" s="2">
+      <c r="O70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P70" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="O70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P70" t="s" s="2">
-        <v>374</v>
-      </c>
       <c r="Q70" t="s" s="2">
         <v>44</v>
       </c>
@@ -10298,7 +10295,7 @@
         <v>44</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
@@ -10313,13 +10310,13 @@
         <v>64</v>
       </c>
       <c r="AJ70" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL70" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>44</v>
@@ -10330,11 +10327,11 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -10356,13 +10353,13 @@
         <v>144</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -10388,14 +10385,14 @@
         <v>44</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="X71" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="Y71" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="Y71" t="s" s="2">
-        <v>383</v>
-      </c>
       <c r="Z71" t="s" s="2">
         <v>44</v>
       </c>
@@ -10412,7 +10409,7 @@
         <v>44</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
@@ -10427,24 +10424,24 @@
         <v>64</v>
       </c>
       <c r="AJ71" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AK71" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="AK71" t="s" s="2">
+      <c r="AL71" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="AL71" t="s" s="2">
+      <c r="AM71" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="AM71" t="s" s="2">
+      <c r="AN71" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>388</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10556,7 +10553,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10670,7 +10667,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10693,19 +10690,19 @@
         <v>53</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="K74" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="K74" t="s" s="2">
+      <c r="L74" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>44</v>
@@ -10754,7 +10751,7 @@
         <v>44</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>42</v>
@@ -10772,10 +10769,10 @@
         <v>44</v>
       </c>
       <c r="AK74" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AL74" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>44</v>
@@ -10786,7 +10783,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10898,7 +10895,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11012,7 +11009,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11038,23 +11035,23 @@
         <v>66</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="R77" t="s" s="2">
         <v>44</v>
@@ -11096,7 +11093,7 @@
         <v>44</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>42</v>
@@ -11114,10 +11111,10 @@
         <v>44</v>
       </c>
       <c r="AK77" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AL77" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>44</v>
@@ -11128,7 +11125,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11154,13 +11151,13 @@
         <v>54</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -11210,7 +11207,7 @@
         <v>44</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>42</v>
@@ -11228,10 +11225,10 @@
         <v>44</v>
       </c>
       <c r="AK78" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AL78" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>44</v>
@@ -11242,7 +11239,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11268,14 +11265,14 @@
         <v>72</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>44</v>
@@ -11324,7 +11321,7 @@
         <v>44</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>42</v>
@@ -11342,10 +11339,10 @@
         <v>44</v>
       </c>
       <c r="AK79" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AL79" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>44</v>
@@ -11356,7 +11353,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11382,14 +11379,14 @@
         <v>54</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>44</v>
@@ -11438,7 +11435,7 @@
         <v>44</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>42</v>
@@ -11456,10 +11453,10 @@
         <v>44</v>
       </c>
       <c r="AK80" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AL80" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>44</v>
@@ -11470,7 +11467,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11493,19 +11490,19 @@
         <v>53</v>
       </c>
       <c r="J81" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="K81" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="K81" t="s" s="2">
+      <c r="L81" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>44</v>
@@ -11554,7 +11551,7 @@
         <v>44</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>42</v>
@@ -11572,10 +11569,10 @@
         <v>44</v>
       </c>
       <c r="AK81" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AL81" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>44</v>
@@ -11586,7 +11583,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11612,16 +11609,16 @@
         <v>54</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="M82" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>44</v>
@@ -11670,7 +11667,7 @@
         <v>44</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>42</v>
@@ -11688,10 +11685,10 @@
         <v>44</v>
       </c>
       <c r="AK82" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AL82" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>44</v>
@@ -11702,11 +11699,11 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11728,13 +11725,13 @@
         <v>144</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11760,14 +11757,14 @@
         <v>44</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="X83" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="Y83" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="Y83" t="s" s="2">
-        <v>407</v>
-      </c>
       <c r="Z83" t="s" s="2">
         <v>44</v>
       </c>
@@ -11784,7 +11781,7 @@
         <v>44</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>42</v>
@@ -11793,7 +11790,7 @@
         <v>43</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>64</v>
@@ -11802,21 +11799,21 @@
         <v>44</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11928,7 +11925,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12042,7 +12039,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12065,19 +12062,19 @@
         <v>53</v>
       </c>
       <c r="J86" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="K86" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="K86" t="s" s="2">
+      <c r="L86" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="M86" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>44</v>
@@ -12126,7 +12123,7 @@
         <v>44</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>42</v>
@@ -12144,10 +12141,10 @@
         <v>44</v>
       </c>
       <c r="AK86" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AL86" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>44</v>
@@ -12158,7 +12155,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12270,7 +12267,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12384,7 +12381,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12410,65 +12407,65 @@
         <v>66</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="L89" t="s" s="2">
+      <c r="M89" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="M89" t="s" s="2">
+      <c r="N89" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P89" s="2"/>
       <c r="Q89" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE89" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="R89" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>42</v>
@@ -12486,10 +12483,10 @@
         <v>44</v>
       </c>
       <c r="AK89" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AL89" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>44</v>
@@ -12500,7 +12497,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12526,13 +12523,13 @@
         <v>54</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="L90" t="s" s="2">
+      <c r="M90" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -12582,7 +12579,7 @@
         <v>44</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>42</v>
@@ -12600,10 +12597,10 @@
         <v>44</v>
       </c>
       <c r="AK90" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AL90" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>44</v>
@@ -12614,7 +12611,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12640,14 +12637,14 @@
         <v>72</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>44</v>
@@ -12696,7 +12693,7 @@
         <v>44</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>42</v>
@@ -12714,10 +12711,10 @@
         <v>44</v>
       </c>
       <c r="AK91" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AL91" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>44</v>
@@ -12728,7 +12725,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12754,14 +12751,14 @@
         <v>54</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>44</v>
@@ -12810,7 +12807,7 @@
         <v>44</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>42</v>
@@ -12828,10 +12825,10 @@
         <v>44</v>
       </c>
       <c r="AK92" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AL92" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>44</v>
@@ -12842,7 +12839,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12865,19 +12862,19 @@
         <v>53</v>
       </c>
       <c r="J93" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="K93" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="K93" t="s" s="2">
+      <c r="L93" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L93" t="s" s="2">
+      <c r="M93" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="M93" t="s" s="2">
+      <c r="N93" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>44</v>
@@ -12926,7 +12923,7 @@
         <v>44</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>42</v>
@@ -12944,10 +12941,10 @@
         <v>44</v>
       </c>
       <c r="AK93" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AL93" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>44</v>
@@ -12958,7 +12955,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12984,16 +12981,16 @@
         <v>54</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="L94" t="s" s="2">
+      <c r="M94" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="N94" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>44</v>
@@ -13042,7 +13039,7 @@
         <v>44</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>42</v>
@@ -13060,10 +13057,10 @@
         <v>44</v>
       </c>
       <c r="AK94" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AL94" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>44</v>
@@ -13074,7 +13071,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13097,17 +13094,17 @@
         <v>53</v>
       </c>
       <c r="J95" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="K95" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="K95" t="s" s="2">
+      <c r="L95" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>44</v>
@@ -13156,7 +13153,7 @@
         <v>44</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>42</v>
@@ -13174,10 +13171,10 @@
         <v>44</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>44</v>
@@ -13188,7 +13185,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13211,13 +13208,13 @@
         <v>53</v>
       </c>
       <c r="J96" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="K96" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="K96" t="s" s="2">
+      <c r="L96" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -13268,7 +13265,7 @@
         <v>44</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>52</v>
@@ -13283,24 +13280,24 @@
         <v>64</v>
       </c>
       <c r="AJ96" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AK96" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="AK96" t="s" s="2">
+      <c r="AL96" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="AL96" t="s" s="2">
+      <c r="AM96" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="AM96" t="s" s="2">
+      <c r="AN96" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>435</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13412,7 +13409,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13526,7 +13523,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13640,7 +13637,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13754,7 +13751,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13868,7 +13865,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13982,11 +13979,11 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
@@ -14005,13 +14002,13 @@
         <v>53</v>
       </c>
       <c r="J103" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="K103" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="K103" t="s" s="2">
+      <c r="L103" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -14062,7 +14059,7 @@
         <v>44</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>42</v>
@@ -14077,24 +14074,24 @@
         <v>64</v>
       </c>
       <c r="AJ103" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AK103" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="AK103" t="s" s="2">
+      <c r="AL103" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="AL103" t="s" s="2">
+      <c r="AM103" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="AM103" t="s" s="2">
+      <c r="AN103" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>451</v>
       </c>
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14206,7 +14203,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14320,7 +14317,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14434,7 +14431,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14548,7 +14545,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14662,7 +14659,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14776,11 +14773,11 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
@@ -14799,13 +14796,13 @@
         <v>53</v>
       </c>
       <c r="J110" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="K110" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="K110" t="s" s="2">
+      <c r="L110" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -14856,7 +14853,7 @@
         <v>44</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>42</v>
@@ -14871,24 +14868,24 @@
         <v>64</v>
       </c>
       <c r="AJ110" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AK110" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="AK110" t="s" s="2">
+      <c r="AL110" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="AL110" t="s" s="2">
+      <c r="AM110" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="AM110" t="s" s="2">
+      <c r="AN110" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="AN110" t="s" s="2">
-        <v>467</v>
       </c>
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14911,13 +14908,13 @@
         <v>53</v>
       </c>
       <c r="J111" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="K111" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="K111" t="s" s="2">
+      <c r="L111" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -14944,14 +14941,14 @@
         <v>44</v>
       </c>
       <c r="W111" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="X111" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="Y111" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="Y111" t="s" s="2">
-        <v>473</v>
-      </c>
       <c r="Z111" t="s" s="2">
         <v>44</v>
       </c>
@@ -14968,7 +14965,7 @@
         <v>44</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>42</v>
@@ -14989,22 +14986,22 @@
         <v>44</v>
       </c>
       <c r="AL111" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AM111" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN111" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="AM111" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN111" t="s" s="2">
-        <v>475</v>
       </c>
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
@@ -15023,13 +15020,13 @@
         <v>53</v>
       </c>
       <c r="J112" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="K112" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="K112" t="s" s="2">
+      <c r="L112" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -15080,7 +15077,7 @@
         <v>44</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>42</v>
@@ -15095,28 +15092,28 @@
         <v>64</v>
       </c>
       <c r="AJ112" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AK112" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="AK112" t="s" s="2">
+      <c r="AL112" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="AL112" t="s" s="2">
+      <c r="AM112" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="AM112" t="s" s="2">
+      <c r="AN112" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="AN112" t="s" s="2">
-        <v>485</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
@@ -15135,16 +15132,16 @@
         <v>53</v>
       </c>
       <c r="J113" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="K113" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="K113" t="s" s="2">
+      <c r="L113" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="L113" t="s" s="2">
+      <c r="M113" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
@@ -15194,7 +15191,7 @@
         <v>44</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>42</v>
@@ -15209,24 +15206,24 @@
         <v>64</v>
       </c>
       <c r="AJ113" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AK113" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="AK113" t="s" s="2">
+      <c r="AL113" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="AL113" t="s" s="2">
+      <c r="AM113" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="AM113" t="s" s="2">
+      <c r="AN113" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="AN113" t="s" s="2">
-        <v>496</v>
       </c>
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15338,7 +15335,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15452,7 +15449,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15566,7 +15563,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -15680,7 +15677,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -15794,7 +15791,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -15908,11 +15905,11 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
@@ -15934,13 +15931,13 @@
         <v>144</v>
       </c>
       <c r="K120" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="L120" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="L120" t="s" s="2">
+      <c r="M120" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>507</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
@@ -15966,14 +15963,14 @@
         <v>44</v>
       </c>
       <c r="W120" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="X120" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="Y120" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="Y120" t="s" s="2">
-        <v>509</v>
-      </c>
       <c r="Z120" t="s" s="2">
         <v>44</v>
       </c>
@@ -15990,7 +15987,7 @@
         <v>44</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>42</v>
@@ -16005,16 +16002,16 @@
         <v>64</v>
       </c>
       <c r="AJ120" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AK120" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="AK120" t="s" s="2">
+      <c r="AL120" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="AL120" t="s" s="2">
+      <c r="AM120" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="AM120" t="s" s="2">
-        <v>513</v>
       </c>
       <c r="AN120" t="s" s="2">
         <v>44</v>
@@ -16022,11 +16019,11 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
@@ -16045,16 +16042,16 @@
         <v>53</v>
       </c>
       <c r="J121" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="K121" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="K121" t="s" s="2">
+      <c r="L121" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="L121" t="s" s="2">
+      <c r="M121" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="M121" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" t="s" s="2">
@@ -16104,7 +16101,7 @@
         <v>44</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>42</v>
@@ -16119,16 +16116,16 @@
         <v>64</v>
       </c>
       <c r="AJ121" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AK121" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="AK121" t="s" s="2">
+      <c r="AL121" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="AL121" t="s" s="2">
-        <v>522</v>
-      </c>
       <c r="AM121" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AN121" t="s" s="2">
         <v>44</v>
@@ -16136,7 +16133,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16248,7 +16245,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16362,7 +16359,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16476,7 +16473,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -16590,7 +16587,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -16704,7 +16701,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -16818,7 +16815,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -16844,10 +16841,10 @@
         <v>144</v>
       </c>
       <c r="K128" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="L128" t="s" s="2">
         <v>530</v>
-      </c>
-      <c r="L128" t="s" s="2">
-        <v>531</v>
       </c>
       <c r="M128" s="2"/>
       <c r="N128" s="2"/>
@@ -16874,14 +16871,14 @@
         <v>44</v>
       </c>
       <c r="W128" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="X128" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="Y128" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="Y128" t="s" s="2">
-        <v>533</v>
-      </c>
       <c r="Z128" t="s" s="2">
         <v>44</v>
       </c>
@@ -16898,7 +16895,7 @@
         <v>44</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>42</v>
@@ -16919,10 +16916,10 @@
         <v>44</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AN128" t="s" s="2">
         <v>44</v>
@@ -16930,7 +16927,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -17042,7 +17039,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -17156,7 +17153,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -17179,19 +17176,19 @@
         <v>53</v>
       </c>
       <c r="J131" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="K131" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="K131" t="s" s="2">
+      <c r="L131" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L131" t="s" s="2">
+      <c r="M131" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="M131" t="s" s="2">
+      <c r="N131" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="N131" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="O131" t="s" s="2">
         <v>44</v>
@@ -17240,7 +17237,7 @@
         <v>44</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>42</v>
@@ -17258,10 +17255,10 @@
         <v>44</v>
       </c>
       <c r="AK131" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AL131" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="AL131" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>44</v>
@@ -17272,7 +17269,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -17384,7 +17381,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -17498,7 +17495,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17524,16 +17521,16 @@
         <v>66</v>
       </c>
       <c r="K134" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L134" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="L134" t="s" s="2">
+      <c r="M134" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="M134" t="s" s="2">
+      <c r="N134" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="N134" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="O134" t="s" s="2">
         <v>44</v>
@@ -17582,7 +17579,7 @@
         <v>44</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>42</v>
@@ -17600,10 +17597,10 @@
         <v>44</v>
       </c>
       <c r="AK134" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AL134" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AL134" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="AM134" t="s" s="2">
         <v>44</v>
@@ -17614,7 +17611,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -17640,13 +17637,13 @@
         <v>54</v>
       </c>
       <c r="K135" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L135" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="L135" t="s" s="2">
+      <c r="M135" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" t="s" s="2">
@@ -17696,7 +17693,7 @@
         <v>44</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>42</v>
@@ -17714,10 +17711,10 @@
         <v>44</v>
       </c>
       <c r="AK135" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AL135" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="AL135" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="AM135" t="s" s="2">
         <v>44</v>
@@ -17728,7 +17725,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -17754,14 +17751,14 @@
         <v>72</v>
       </c>
       <c r="K136" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L136" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="L136" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="M136" s="2"/>
       <c r="N136" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>44</v>
@@ -17810,7 +17807,7 @@
         <v>44</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>42</v>
@@ -17828,10 +17825,10 @@
         <v>44</v>
       </c>
       <c r="AK136" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AL136" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AL136" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="AM136" t="s" s="2">
         <v>44</v>
@@ -17842,7 +17839,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -17868,14 +17865,14 @@
         <v>54</v>
       </c>
       <c r="K137" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="L137" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="L137" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="M137" s="2"/>
       <c r="N137" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O137" t="s" s="2">
         <v>44</v>
@@ -17924,7 +17921,7 @@
         <v>44</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>42</v>
@@ -17942,10 +17939,10 @@
         <v>44</v>
       </c>
       <c r="AK137" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AL137" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AL137" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="AM137" t="s" s="2">
         <v>44</v>
@@ -17956,7 +17953,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -17979,19 +17976,19 @@
         <v>53</v>
       </c>
       <c r="J138" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="K138" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="K138" t="s" s="2">
+      <c r="L138" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L138" t="s" s="2">
+      <c r="M138" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="M138" t="s" s="2">
+      <c r="N138" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="N138" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="O138" t="s" s="2">
         <v>44</v>
@@ -18040,7 +18037,7 @@
         <v>44</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>42</v>
@@ -18058,10 +18055,10 @@
         <v>44</v>
       </c>
       <c r="AK138" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AL138" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="AL138" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="AM138" t="s" s="2">
         <v>44</v>
@@ -18072,7 +18069,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -18098,16 +18095,16 @@
         <v>54</v>
       </c>
       <c r="K139" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L139" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="L139" t="s" s="2">
+      <c r="M139" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="M139" t="s" s="2">
+      <c r="N139" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>44</v>
@@ -18156,7 +18153,7 @@
         <v>44</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>42</v>
@@ -18174,10 +18171,10 @@
         <v>44</v>
       </c>
       <c r="AK139" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AL139" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AL139" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>44</v>
@@ -18188,7 +18185,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -18211,13 +18208,13 @@
         <v>53</v>
       </c>
       <c r="J140" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="K140" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="L140" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="K140" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="L140" t="s" s="2">
-        <v>548</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
@@ -18268,7 +18265,7 @@
         <v>44</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>42</v>
@@ -18289,10 +18286,10 @@
         <v>44</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AM140" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AN140" t="s" s="2">
         <v>44</v>
@@ -18300,7 +18297,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -18412,7 +18409,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -18526,7 +18523,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -18640,7 +18637,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -18754,7 +18751,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -18868,7 +18865,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -18982,7 +18979,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -19008,13 +19005,13 @@
         <v>144</v>
       </c>
       <c r="K147" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="L147" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="L147" t="s" s="2">
+      <c r="M147" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="M147" t="s" s="2">
-        <v>559</v>
       </c>
       <c r="N147" s="2"/>
       <c r="O147" t="s" s="2">
@@ -19040,14 +19037,14 @@
         <v>44</v>
       </c>
       <c r="W147" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="X147" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="Y147" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="Y147" t="s" s="2">
-        <v>561</v>
-      </c>
       <c r="Z147" t="s" s="2">
         <v>44</v>
       </c>
@@ -19064,7 +19061,7 @@
         <v>44</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>42</v>
@@ -19079,16 +19076,16 @@
         <v>64</v>
       </c>
       <c r="AJ147" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AK147" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="AK147" t="s" s="2">
+      <c r="AL147" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="AL147" t="s" s="2">
+      <c r="AM147" t="s" s="2">
         <v>564</v>
-      </c>
-      <c r="AM147" t="s" s="2">
-        <v>565</v>
       </c>
       <c r="AN147" t="s" s="2">
         <v>44</v>
@@ -19096,7 +19093,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -19208,7 +19205,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -19322,7 +19319,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -19345,19 +19342,19 @@
         <v>53</v>
       </c>
       <c r="J150" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="K150" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="K150" t="s" s="2">
+      <c r="L150" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L150" t="s" s="2">
+      <c r="M150" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="M150" t="s" s="2">
+      <c r="N150" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="N150" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="O150" t="s" s="2">
         <v>44</v>
@@ -19406,7 +19403,7 @@
         <v>44</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>42</v>
@@ -19424,10 +19421,10 @@
         <v>44</v>
       </c>
       <c r="AK150" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AL150" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="AL150" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="AM150" t="s" s="2">
         <v>44</v>
@@ -19438,7 +19435,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -19550,7 +19547,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -19664,7 +19661,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -19690,65 +19687,65 @@
         <v>66</v>
       </c>
       <c r="K153" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L153" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="L153" t="s" s="2">
+      <c r="M153" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="M153" t="s" s="2">
+      <c r="N153" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="N153" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="O153" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P153" s="2"/>
       <c r="Q153" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="R153" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S153" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T153" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U153" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V153" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W153" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X153" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y153" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z153" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA153" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB153" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC153" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD153" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE153" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="R153" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S153" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T153" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U153" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V153" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W153" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X153" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y153" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z153" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA153" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB153" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC153" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD153" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE153" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>42</v>
@@ -19766,10 +19763,10 @@
         <v>44</v>
       </c>
       <c r="AK153" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AL153" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AL153" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="AM153" t="s" s="2">
         <v>44</v>
@@ -19780,7 +19777,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -19806,13 +19803,13 @@
         <v>54</v>
       </c>
       <c r="K154" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L154" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="L154" t="s" s="2">
+      <c r="M154" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="M154" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" t="s" s="2">
@@ -19862,7 +19859,7 @@
         <v>44</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>42</v>
@@ -19880,10 +19877,10 @@
         <v>44</v>
       </c>
       <c r="AK154" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AL154" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="AL154" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="AM154" t="s" s="2">
         <v>44</v>
@@ -19894,7 +19891,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -19920,14 +19917,14 @@
         <v>72</v>
       </c>
       <c r="K155" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L155" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="L155" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="M155" s="2"/>
       <c r="N155" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O155" t="s" s="2">
         <v>44</v>
@@ -19976,7 +19973,7 @@
         <v>44</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>42</v>
@@ -19994,10 +19991,10 @@
         <v>44</v>
       </c>
       <c r="AK155" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AL155" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AL155" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="AM155" t="s" s="2">
         <v>44</v>
@@ -20008,7 +20005,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -20034,14 +20031,14 @@
         <v>54</v>
       </c>
       <c r="K156" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="L156" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="L156" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="M156" s="2"/>
       <c r="N156" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O156" t="s" s="2">
         <v>44</v>
@@ -20090,7 +20087,7 @@
         <v>44</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>42</v>
@@ -20108,10 +20105,10 @@
         <v>44</v>
       </c>
       <c r="AK156" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AL156" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AL156" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="AM156" t="s" s="2">
         <v>44</v>
@@ -20122,7 +20119,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -20145,19 +20142,19 @@
         <v>53</v>
       </c>
       <c r="J157" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="K157" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="K157" t="s" s="2">
+      <c r="L157" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L157" t="s" s="2">
+      <c r="M157" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="M157" t="s" s="2">
+      <c r="N157" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="N157" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="O157" t="s" s="2">
         <v>44</v>
@@ -20206,7 +20203,7 @@
         <v>44</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>42</v>
@@ -20224,10 +20221,10 @@
         <v>44</v>
       </c>
       <c r="AK157" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AL157" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="AL157" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="AM157" t="s" s="2">
         <v>44</v>
@@ -20238,7 +20235,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -20264,16 +20261,16 @@
         <v>54</v>
       </c>
       <c r="K158" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L158" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="L158" t="s" s="2">
+      <c r="M158" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="M158" t="s" s="2">
+      <c r="N158" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="N158" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>44</v>
@@ -20322,7 +20319,7 @@
         <v>44</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>42</v>
@@ -20340,10 +20337,10 @@
         <v>44</v>
       </c>
       <c r="AK158" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AL158" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AL158" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="AM158" t="s" s="2">
         <v>44</v>
@@ -20354,7 +20351,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -20377,16 +20374,16 @@
         <v>53</v>
       </c>
       <c r="J159" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="K159" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="K159" t="s" s="2">
+      <c r="L159" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="L159" t="s" s="2">
+      <c r="M159" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="M159" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" t="s" s="2">
@@ -20436,7 +20433,7 @@
         <v>44</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>42</v>
@@ -20451,16 +20448,16 @@
         <v>64</v>
       </c>
       <c r="AJ159" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="AK159" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="AK159" t="s" s="2">
+      <c r="AL159" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="AL159" t="s" s="2">
-        <v>584</v>
-      </c>
       <c r="AM159" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AN159" t="s" s="2">
         <v>44</v>
@@ -20468,7 +20465,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -20580,7 +20577,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -20694,7 +20691,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -20808,7 +20805,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -20922,7 +20919,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -21036,7 +21033,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -21150,7 +21147,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -21173,13 +21170,13 @@
         <v>44</v>
       </c>
       <c r="J166" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="K166" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="K166" t="s" s="2">
+      <c r="L166" t="s" s="2">
         <v>593</v>
-      </c>
-      <c r="L166" t="s" s="2">
-        <v>594</v>
       </c>
       <c r="M166" s="2"/>
       <c r="N166" s="2"/>
@@ -21230,7 +21227,7 @@
         <v>44</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>42</v>
@@ -21245,13 +21242,13 @@
         <v>64</v>
       </c>
       <c r="AJ166" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="AK166" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="AK166" t="s" s="2">
+      <c r="AL166" t="s" s="2">
         <v>596</v>
-      </c>
-      <c r="AL166" t="s" s="2">
-        <v>597</v>
       </c>
       <c r="AM166" t="s" s="2">
         <v>44</v>
@@ -21262,7 +21259,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -21374,7 +21371,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -21488,7 +21485,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -21602,7 +21599,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -21716,7 +21713,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -21830,7 +21827,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -21944,11 +21941,11 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" t="s" s="2">
@@ -21967,16 +21964,16 @@
         <v>44</v>
       </c>
       <c r="J173" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="K173" t="s" s="2">
         <v>606</v>
       </c>
-      <c r="K173" t="s" s="2">
+      <c r="L173" t="s" s="2">
         <v>607</v>
       </c>
-      <c r="L173" t="s" s="2">
+      <c r="M173" t="s" s="2">
         <v>608</v>
-      </c>
-      <c r="M173" t="s" s="2">
-        <v>609</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" t="s" s="2">
@@ -22026,7 +22023,7 @@
         <v>44</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>42</v>
@@ -22041,13 +22038,13 @@
         <v>64</v>
       </c>
       <c r="AJ173" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="AK173" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="AK173" t="s" s="2">
+      <c r="AL173" t="s" s="2">
         <v>611</v>
-      </c>
-      <c r="AL173" t="s" s="2">
-        <v>612</v>
       </c>
       <c r="AM173" t="s" s="2">
         <v>44</v>
@@ -22058,7 +22055,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -22081,16 +22078,16 @@
         <v>53</v>
       </c>
       <c r="J174" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="K174" t="s" s="2">
         <v>614</v>
       </c>
-      <c r="K174" t="s" s="2">
+      <c r="L174" t="s" s="2">
         <v>615</v>
       </c>
-      <c r="L174" t="s" s="2">
+      <c r="M174" t="s" s="2">
         <v>616</v>
-      </c>
-      <c r="M174" t="s" s="2">
-        <v>617</v>
       </c>
       <c r="N174" s="2"/>
       <c r="O174" t="s" s="2">
@@ -22140,7 +22137,7 @@
         <v>44</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>42</v>
@@ -22158,10 +22155,10 @@
         <v>44</v>
       </c>
       <c r="AK174" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="AL174" t="s" s="2">
         <v>618</v>
-      </c>
-      <c r="AL174" t="s" s="2">
-        <v>619</v>
       </c>
       <c r="AM174" t="s" s="2">
         <v>44</v>
@@ -22172,7 +22169,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -22284,7 +22281,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -22398,7 +22395,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -22512,7 +22509,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -22626,7 +22623,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -22740,7 +22737,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -22854,11 +22851,11 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" t="s" s="2">
@@ -22880,16 +22877,16 @@
         <v>144</v>
       </c>
       <c r="K181" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="L181" t="s" s="2">
         <v>628</v>
       </c>
-      <c r="L181" t="s" s="2">
+      <c r="M181" t="s" s="2">
         <v>629</v>
       </c>
-      <c r="M181" t="s" s="2">
+      <c r="N181" t="s" s="2">
         <v>630</v>
-      </c>
-      <c r="N181" t="s" s="2">
-        <v>631</v>
       </c>
       <c r="O181" t="s" s="2">
         <v>44</v>
@@ -22914,14 +22911,14 @@
         <v>44</v>
       </c>
       <c r="W181" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="X181" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="Y181" t="s" s="2">
         <v>632</v>
       </c>
-      <c r="Y181" t="s" s="2">
-        <v>633</v>
-      </c>
       <c r="Z181" t="s" s="2">
         <v>44</v>
       </c>
@@ -22938,7 +22935,7 @@
         <v>44</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AF181" t="s" s="2">
         <v>42</v>
@@ -22956,21 +22953,21 @@
         <v>44</v>
       </c>
       <c r="AK181" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AL181" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="AM181" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN181" t="s" s="2">
         <v>634</v>
-      </c>
-      <c r="AM181" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN181" t="s" s="2">
-        <v>635</v>
       </c>
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -23082,7 +23079,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -23196,7 +23193,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -23219,19 +23216,19 @@
         <v>53</v>
       </c>
       <c r="J184" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="K184" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="K184" t="s" s="2">
+      <c r="L184" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L184" t="s" s="2">
+      <c r="M184" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="M184" t="s" s="2">
+      <c r="N184" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="N184" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="O184" t="s" s="2">
         <v>44</v>
@@ -23280,7 +23277,7 @@
         <v>44</v>
       </c>
       <c r="AE184" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AF184" t="s" s="2">
         <v>42</v>
@@ -23298,10 +23295,10 @@
         <v>44</v>
       </c>
       <c r="AK184" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AL184" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="AL184" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="AM184" t="s" s="2">
         <v>44</v>
@@ -23312,7 +23309,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -23424,7 +23421,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -23538,7 +23535,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
@@ -23564,65 +23561,65 @@
         <v>66</v>
       </c>
       <c r="K187" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L187" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="L187" t="s" s="2">
+      <c r="M187" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="M187" t="s" s="2">
+      <c r="N187" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="N187" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="O187" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P187" s="2"/>
       <c r="Q187" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="R187" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S187" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T187" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U187" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V187" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W187" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X187" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y187" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z187" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA187" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB187" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC187" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD187" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE187" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="R187" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S187" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T187" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U187" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V187" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W187" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X187" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y187" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z187" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA187" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB187" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC187" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD187" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE187" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="AF187" t="s" s="2">
         <v>42</v>
@@ -23640,10 +23637,10 @@
         <v>44</v>
       </c>
       <c r="AK187" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AL187" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AL187" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="AM187" t="s" s="2">
         <v>44</v>
@@ -23654,7 +23651,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -23680,13 +23677,13 @@
         <v>54</v>
       </c>
       <c r="K188" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L188" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="L188" t="s" s="2">
+      <c r="M188" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="M188" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="N188" s="2"/>
       <c r="O188" t="s" s="2">
@@ -23736,7 +23733,7 @@
         <v>44</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>42</v>
@@ -23754,10 +23751,10 @@
         <v>44</v>
       </c>
       <c r="AK188" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AL188" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="AL188" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="AM188" t="s" s="2">
         <v>44</v>
@@ -23768,7 +23765,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -23794,14 +23791,14 @@
         <v>72</v>
       </c>
       <c r="K189" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L189" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="L189" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="M189" s="2"/>
       <c r="N189" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O189" t="s" s="2">
         <v>44</v>
@@ -23850,7 +23847,7 @@
         <v>44</v>
       </c>
       <c r="AE189" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AF189" t="s" s="2">
         <v>42</v>
@@ -23868,10 +23865,10 @@
         <v>44</v>
       </c>
       <c r="AK189" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AL189" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AL189" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="AM189" t="s" s="2">
         <v>44</v>
@@ -23882,7 +23879,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -23908,14 +23905,14 @@
         <v>54</v>
       </c>
       <c r="K190" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="L190" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="L190" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="M190" s="2"/>
       <c r="N190" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O190" t="s" s="2">
         <v>44</v>
@@ -23964,7 +23961,7 @@
         <v>44</v>
       </c>
       <c r="AE190" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AF190" t="s" s="2">
         <v>42</v>
@@ -23982,10 +23979,10 @@
         <v>44</v>
       </c>
       <c r="AK190" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AL190" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AL190" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="AM190" t="s" s="2">
         <v>44</v>
@@ -23996,7 +23993,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -24019,19 +24016,19 @@
         <v>53</v>
       </c>
       <c r="J191" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="K191" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="K191" t="s" s="2">
+      <c r="L191" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L191" t="s" s="2">
+      <c r="M191" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="M191" t="s" s="2">
+      <c r="N191" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="N191" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="O191" t="s" s="2">
         <v>44</v>
@@ -24080,7 +24077,7 @@
         <v>44</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>42</v>
@@ -24098,10 +24095,10 @@
         <v>44</v>
       </c>
       <c r="AK191" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AL191" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="AL191" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="AM191" t="s" s="2">
         <v>44</v>
@@ -24112,7 +24109,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -24138,16 +24135,16 @@
         <v>54</v>
       </c>
       <c r="K192" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L192" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="L192" t="s" s="2">
+      <c r="M192" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="M192" t="s" s="2">
+      <c r="N192" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="N192" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="O192" t="s" s="2">
         <v>44</v>
@@ -24196,7 +24193,7 @@
         <v>44</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AF192" t="s" s="2">
         <v>42</v>
@@ -24214,10 +24211,10 @@
         <v>44</v>
       </c>
       <c r="AK192" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AL192" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AL192" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="AM192" t="s" s="2">
         <v>44</v>
@@ -24228,7 +24225,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -24251,13 +24248,13 @@
         <v>44</v>
       </c>
       <c r="J193" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="K193" t="s" s="2">
         <v>12</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="M193" s="2"/>
       <c r="N193" s="2"/>
@@ -24308,7 +24305,7 @@
         <v>44</v>
       </c>
       <c r="AE193" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AF193" t="s" s="2">
         <v>42</v>
@@ -24323,24 +24320,24 @@
         <v>64</v>
       </c>
       <c r="AJ193" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="AK193" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AL193" t="s" s="2">
         <v>650</v>
       </c>
-      <c r="AK193" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="AL193" t="s" s="2">
+      <c r="AM193" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN193" t="s" s="2">
         <v>651</v>
-      </c>
-      <c r="AM193" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN193" t="s" s="2">
-        <v>652</v>
       </c>
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -24452,7 +24449,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -24566,7 +24563,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -24589,16 +24586,16 @@
         <v>53</v>
       </c>
       <c r="J196" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="K196" t="s" s="2">
         <v>656</v>
       </c>
-      <c r="K196" t="s" s="2">
+      <c r="L196" t="s" s="2">
         <v>657</v>
       </c>
-      <c r="L196" t="s" s="2">
+      <c r="M196" t="s" s="2">
         <v>658</v>
-      </c>
-      <c r="M196" t="s" s="2">
-        <v>659</v>
       </c>
       <c r="N196" s="2"/>
       <c r="O196" t="s" s="2">
@@ -24648,7 +24645,7 @@
         <v>44</v>
       </c>
       <c r="AE196" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="AF196" t="s" s="2">
         <v>42</v>
@@ -24669,7 +24666,7 @@
         <v>95</v>
       </c>
       <c r="AL196" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AM196" t="s" s="2">
         <v>44</v>
@@ -24680,7 +24677,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -24703,13 +24700,13 @@
         <v>53</v>
       </c>
       <c r="J197" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K197" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="L197" t="s" s="2">
         <v>663</v>
-      </c>
-      <c r="L197" t="s" s="2">
-        <v>664</v>
       </c>
       <c r="M197" s="2"/>
       <c r="N197" s="2"/>
@@ -24760,7 +24757,7 @@
         <v>44</v>
       </c>
       <c r="AE197" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AF197" t="s" s="2">
         <v>42</v>
@@ -24781,7 +24778,7 @@
         <v>95</v>
       </c>
       <c r="AL197" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AM197" t="s" s="2">
         <v>44</v>
@@ -24792,7 +24789,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -24815,13 +24812,13 @@
         <v>53</v>
       </c>
       <c r="J198" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="K198" t="s" s="2">
         <v>668</v>
       </c>
-      <c r="K198" t="s" s="2">
+      <c r="L198" t="s" s="2">
         <v>669</v>
-      </c>
-      <c r="L198" t="s" s="2">
-        <v>670</v>
       </c>
       <c r="M198" s="2"/>
       <c r="N198" s="2"/>
@@ -24872,7 +24869,7 @@
         <v>44</v>
       </c>
       <c r="AE198" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AF198" t="s" s="2">
         <v>52</v>
@@ -24893,7 +24890,7 @@
         <v>95</v>
       </c>
       <c r="AL198" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AM198" t="s" s="2">
         <v>44</v>
@@ -24904,7 +24901,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -24930,10 +24927,10 @@
         <v>54</v>
       </c>
       <c r="K199" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="L199" t="s" s="2">
         <v>674</v>
-      </c>
-      <c r="L199" t="s" s="2">
-        <v>675</v>
       </c>
       <c r="M199" s="2"/>
       <c r="N199" s="2"/>
@@ -24984,7 +24981,7 @@
         <v>44</v>
       </c>
       <c r="AE199" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="AF199" t="s" s="2">
         <v>42</v>
@@ -25002,10 +24999,10 @@
         <v>44</v>
       </c>
       <c r="AK199" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AL199" t="s" s="2">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AM199" t="s" s="2">
         <v>44</v>
@@ -25016,7 +25013,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -25039,16 +25036,16 @@
         <v>44</v>
       </c>
       <c r="J200" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="K200" t="s" s="2">
         <v>678</v>
       </c>
-      <c r="K200" t="s" s="2">
+      <c r="L200" t="s" s="2">
         <v>679</v>
       </c>
-      <c r="L200" t="s" s="2">
+      <c r="M200" t="s" s="2">
         <v>680</v>
-      </c>
-      <c r="M200" t="s" s="2">
-        <v>681</v>
       </c>
       <c r="N200" s="2"/>
       <c r="O200" t="s" s="2">
@@ -25098,7 +25095,7 @@
         <v>44</v>
       </c>
       <c r="AE200" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AF200" t="s" s="2">
         <v>42</v>
@@ -25113,13 +25110,13 @@
         <v>64</v>
       </c>
       <c r="AJ200" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="AK200" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AL200" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="AM200" t="s" s="2">
         <v>44</v>

--- a/fhir/indisa/StructureDefinition-ProfileServiceRequestKlinic.xlsx
+++ b/fhir/indisa/StructureDefinition-ProfileServiceRequestKlinic.xlsx
@@ -2285,46 +2285,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.984375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="20.08984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="42.28125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.07421875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="47.13671875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="20.578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="92.2890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="92.15234375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="66.6171875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.9375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="67.796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="35.71484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="27.73828125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="84.56640625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="157.5625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="61.04296875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="85.41796875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="163.44140625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="66.88671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/fhir/indisa/StructureDefinition-ProfileServiceRequestKlinic.xlsx
+++ b/fhir/indisa/StructureDefinition-ProfileServiceRequestKlinic.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$200</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$206</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7199" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7414" uniqueCount="689">
   <si>
     <t>Path</t>
   </si>
@@ -1907,6 +1907,24 @@
   </si>
   <si>
     <t>.outboundRelationship[typeCode=PERT].target</t>
+  </si>
+  <si>
+    <t>ServiceRequest.supportingInfo.id</t>
+  </si>
+  <si>
+    <t>ServiceRequest.supportingInfo.extension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.supportingInfo.reference</t>
+  </si>
+  <si>
+    <t>ServiceRequest.supportingInfo.type</t>
+  </si>
+  <si>
+    <t>ServiceRequest.supportingInfo.identifier</t>
+  </si>
+  <si>
+    <t>ServiceRequest.supportingInfo.display</t>
   </si>
   <si>
     <t>ServiceRequest.specimen</t>
@@ -2276,7 +2294,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN200"/>
+  <dimension ref="A1:AN206"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -21952,7 +21970,7 @@
         <v>42</v>
       </c>
       <c r="F173" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G173" t="s" s="2">
         <v>44</v>
@@ -22075,20 +22093,18 @@
         <v>44</v>
       </c>
       <c r="I174" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J174" t="s" s="2">
-        <v>613</v>
+        <v>54</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>614</v>
+        <v>123</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="M174" t="s" s="2">
-        <v>616</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="M174" s="2"/>
       <c r="N174" s="2"/>
       <c r="O174" t="s" s="2">
         <v>44</v>
@@ -22137,28 +22153,28 @@
         <v>44</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>612</v>
+        <v>125</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG174" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH174" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI174" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ174" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK174" t="s" s="2">
-        <v>617</v>
+        <v>44</v>
       </c>
       <c r="AL174" t="s" s="2">
-        <v>618</v>
+        <v>126</v>
       </c>
       <c r="AM174" t="s" s="2">
         <v>44</v>
@@ -22169,18 +22185,18 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F175" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G175" t="s" s="2">
         <v>44</v>
@@ -22192,15 +22208,17 @@
         <v>44</v>
       </c>
       <c r="J175" t="s" s="2">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="M175" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="M175" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="N175" s="2"/>
       <c r="O175" t="s" s="2">
         <v>44</v>
@@ -22237,31 +22255,31 @@
         <v>44</v>
       </c>
       <c r="AA175" t="s" s="2">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="AB175" t="s" s="2">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="AC175" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD175" t="s" s="2">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG175" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH175" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI175" t="s" s="2">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="AJ175" t="s" s="2">
         <v>44</v>
@@ -22281,18 +22299,18 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F176" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G176" t="s" s="2">
         <v>44</v>
@@ -22301,19 +22319,19 @@
         <v>44</v>
       </c>
       <c r="I176" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J176" t="s" s="2">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>99</v>
+        <v>215</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>128</v>
+        <v>216</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>101</v>
+        <v>217</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" t="s" s="2">
@@ -22351,31 +22369,31 @@
         <v>44</v>
       </c>
       <c r="AA176" t="s" s="2">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="AB176" t="s" s="2">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="AC176" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD176" t="s" s="2">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>131</v>
+        <v>218</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG176" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH176" t="s" s="2">
-        <v>44</v>
+        <v>219</v>
       </c>
       <c r="AI176" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ176" t="s" s="2">
         <v>44</v>
@@ -22384,7 +22402,7 @@
         <v>44</v>
       </c>
       <c r="AL176" t="s" s="2">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="AM176" t="s" s="2">
         <v>44</v>
@@ -22395,7 +22413,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -22406,7 +22424,7 @@
         <v>42</v>
       </c>
       <c r="F177" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G177" t="s" s="2">
         <v>44</v>
@@ -22418,16 +22436,16 @@
         <v>53</v>
       </c>
       <c r="J177" t="s" s="2">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="N177" s="2"/>
       <c r="O177" t="s" s="2">
@@ -22453,13 +22471,13 @@
         <v>44</v>
       </c>
       <c r="W177" t="s" s="2">
-        <v>44</v>
+        <v>149</v>
       </c>
       <c r="X177" t="s" s="2">
-        <v>44</v>
+        <v>224</v>
       </c>
       <c r="Y177" t="s" s="2">
-        <v>44</v>
+        <v>225</v>
       </c>
       <c r="Z177" t="s" s="2">
         <v>44</v>
@@ -22477,7 +22495,7 @@
         <v>44</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>42</v>
@@ -22486,7 +22504,7 @@
         <v>52</v>
       </c>
       <c r="AH177" t="s" s="2">
-        <v>219</v>
+        <v>44</v>
       </c>
       <c r="AI177" t="s" s="2">
         <v>64</v>
@@ -22509,7 +22527,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -22532,16 +22550,16 @@
         <v>53</v>
       </c>
       <c r="J178" t="s" s="2">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="N178" s="2"/>
       <c r="O178" t="s" s="2">
@@ -22567,13 +22585,13 @@
         <v>44</v>
       </c>
       <c r="W178" t="s" s="2">
-        <v>149</v>
+        <v>44</v>
       </c>
       <c r="X178" t="s" s="2">
-        <v>224</v>
+        <v>44</v>
       </c>
       <c r="Y178" t="s" s="2">
-        <v>225</v>
+        <v>44</v>
       </c>
       <c r="Z178" t="s" s="2">
         <v>44</v>
@@ -22591,7 +22609,7 @@
         <v>44</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>42</v>
@@ -22612,7 +22630,7 @@
         <v>44</v>
       </c>
       <c r="AL178" t="s" s="2">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="AM178" t="s" s="2">
         <v>44</v>
@@ -22623,7 +22641,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -22646,16 +22664,16 @@
         <v>53</v>
       </c>
       <c r="J179" t="s" s="2">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="N179" s="2"/>
       <c r="O179" t="s" s="2">
@@ -22705,7 +22723,7 @@
         <v>44</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>42</v>
@@ -22726,7 +22744,7 @@
         <v>44</v>
       </c>
       <c r="AL179" t="s" s="2">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="AM179" t="s" s="2">
         <v>44</v>
@@ -22737,7 +22755,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -22748,7 +22766,7 @@
         <v>42</v>
       </c>
       <c r="F180" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G180" t="s" s="2">
         <v>44</v>
@@ -22760,16 +22778,16 @@
         <v>53</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>54</v>
+        <v>619</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>233</v>
+        <v>620</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>234</v>
+        <v>621</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>235</v>
+        <v>622</v>
       </c>
       <c r="N180" s="2"/>
       <c r="O180" t="s" s="2">
@@ -22819,13 +22837,13 @@
         <v>44</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>236</v>
+        <v>618</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG180" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH180" t="s" s="2">
         <v>44</v>
@@ -22837,10 +22855,10 @@
         <v>44</v>
       </c>
       <c r="AK180" t="s" s="2">
-        <v>44</v>
+        <v>623</v>
       </c>
       <c r="AL180" t="s" s="2">
-        <v>95</v>
+        <v>624</v>
       </c>
       <c r="AM180" t="s" s="2">
         <v>44</v>
@@ -22855,14 +22873,14 @@
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
-        <v>626</v>
+        <v>44</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F181" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G181" t="s" s="2">
         <v>44</v>
@@ -22871,23 +22889,19 @@
         <v>44</v>
       </c>
       <c r="I181" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J181" t="s" s="2">
-        <v>144</v>
+        <v>54</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>627</v>
+        <v>123</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="M181" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="N181" t="s" s="2">
-        <v>630</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="M181" s="2"/>
+      <c r="N181" s="2"/>
       <c r="O181" t="s" s="2">
         <v>44</v>
       </c>
@@ -22911,13 +22925,13 @@
         <v>44</v>
       </c>
       <c r="W181" t="s" s="2">
-        <v>293</v>
+        <v>44</v>
       </c>
       <c r="X181" t="s" s="2">
-        <v>631</v>
+        <v>44</v>
       </c>
       <c r="Y181" t="s" s="2">
-        <v>632</v>
+        <v>44</v>
       </c>
       <c r="Z181" t="s" s="2">
         <v>44</v>
@@ -22935,50 +22949,50 @@
         <v>44</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>625</v>
+        <v>125</v>
       </c>
       <c r="AF181" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG181" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH181" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI181" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ181" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK181" t="s" s="2">
-        <v>617</v>
+        <v>44</v>
       </c>
       <c r="AL181" t="s" s="2">
-        <v>633</v>
+        <v>126</v>
       </c>
       <c r="AM181" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN181" t="s" s="2">
-        <v>634</v>
+        <v>44</v>
       </c>
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F182" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G182" t="s" s="2">
         <v>44</v>
@@ -22990,15 +23004,17 @@
         <v>44</v>
       </c>
       <c r="J182" t="s" s="2">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="M182" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="M182" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="N182" s="2"/>
       <c r="O182" t="s" s="2">
         <v>44</v>
@@ -23035,31 +23051,31 @@
         <v>44</v>
       </c>
       <c r="AA182" t="s" s="2">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="AB182" t="s" s="2">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="AC182" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD182" t="s" s="2">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="AE182" t="s" s="2">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="AF182" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG182" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH182" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI182" t="s" s="2">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="AJ182" t="s" s="2">
         <v>44</v>
@@ -23079,18 +23095,18 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F183" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G183" t="s" s="2">
         <v>44</v>
@@ -23099,19 +23115,19 @@
         <v>44</v>
       </c>
       <c r="I183" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J183" t="s" s="2">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>99</v>
+        <v>215</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>128</v>
+        <v>216</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>101</v>
+        <v>217</v>
       </c>
       <c r="N183" s="2"/>
       <c r="O183" t="s" s="2">
@@ -23149,31 +23165,31 @@
         <v>44</v>
       </c>
       <c r="AA183" t="s" s="2">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="AB183" t="s" s="2">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="AC183" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD183" t="s" s="2">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>131</v>
+        <v>218</v>
       </c>
       <c r="AF183" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG183" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH183" t="s" s="2">
-        <v>44</v>
+        <v>219</v>
       </c>
       <c r="AI183" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ183" t="s" s="2">
         <v>44</v>
@@ -23182,7 +23198,7 @@
         <v>44</v>
       </c>
       <c r="AL183" t="s" s="2">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="AM183" t="s" s="2">
         <v>44</v>
@@ -23193,7 +23209,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -23204,7 +23220,7 @@
         <v>42</v>
       </c>
       <c r="F184" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G184" t="s" s="2">
         <v>44</v>
@@ -23216,20 +23232,18 @@
         <v>53</v>
       </c>
       <c r="J184" t="s" s="2">
-        <v>301</v>
+        <v>66</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>302</v>
+        <v>221</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>303</v>
+        <v>222</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N184" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N184" s="2"/>
       <c r="O184" t="s" s="2">
         <v>44</v>
       </c>
@@ -23253,13 +23267,13 @@
         <v>44</v>
       </c>
       <c r="W184" t="s" s="2">
-        <v>44</v>
+        <v>149</v>
       </c>
       <c r="X184" t="s" s="2">
-        <v>44</v>
+        <v>224</v>
       </c>
       <c r="Y184" t="s" s="2">
-        <v>44</v>
+        <v>225</v>
       </c>
       <c r="Z184" t="s" s="2">
         <v>44</v>
@@ -23277,13 +23291,13 @@
         <v>44</v>
       </c>
       <c r="AE184" t="s" s="2">
-        <v>306</v>
+        <v>226</v>
       </c>
       <c r="AF184" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG184" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH184" t="s" s="2">
         <v>44</v>
@@ -23295,10 +23309,10 @@
         <v>44</v>
       </c>
       <c r="AK184" t="s" s="2">
-        <v>307</v>
+        <v>44</v>
       </c>
       <c r="AL184" t="s" s="2">
-        <v>308</v>
+        <v>95</v>
       </c>
       <c r="AM184" t="s" s="2">
         <v>44</v>
@@ -23309,7 +23323,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -23329,18 +23343,20 @@
         <v>44</v>
       </c>
       <c r="I185" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J185" t="s" s="2">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>123</v>
+        <v>228</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="M185" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="M185" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="N185" s="2"/>
       <c r="O185" t="s" s="2">
         <v>44</v>
@@ -23389,7 +23405,7 @@
         <v>44</v>
       </c>
       <c r="AE185" t="s" s="2">
-        <v>125</v>
+        <v>231</v>
       </c>
       <c r="AF185" t="s" s="2">
         <v>42</v>
@@ -23401,7 +23417,7 @@
         <v>44</v>
       </c>
       <c r="AI185" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ185" t="s" s="2">
         <v>44</v>
@@ -23410,7 +23426,7 @@
         <v>44</v>
       </c>
       <c r="AL185" t="s" s="2">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="AM185" t="s" s="2">
         <v>44</v>
@@ -23421,18 +23437,18 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F186" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G186" t="s" s="2">
         <v>44</v>
@@ -23441,19 +23457,19 @@
         <v>44</v>
       </c>
       <c r="I186" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J186" t="s" s="2">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>99</v>
+        <v>233</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>128</v>
+        <v>234</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>101</v>
+        <v>235</v>
       </c>
       <c r="N186" s="2"/>
       <c r="O186" t="s" s="2">
@@ -23491,31 +23507,31 @@
         <v>44</v>
       </c>
       <c r="AA186" t="s" s="2">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="AB186" t="s" s="2">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="AC186" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD186" t="s" s="2">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>131</v>
+        <v>236</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG186" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH186" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI186" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ186" t="s" s="2">
         <v>44</v>
@@ -23524,7 +23540,7 @@
         <v>44</v>
       </c>
       <c r="AL186" t="s" s="2">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="AM186" t="s" s="2">
         <v>44</v>
@@ -23535,18 +23551,18 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
-        <v>44</v>
+        <v>632</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F187" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G187" t="s" s="2">
         <v>44</v>
@@ -23558,26 +23574,26 @@
         <v>53</v>
       </c>
       <c r="J187" t="s" s="2">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>312</v>
+        <v>633</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>313</v>
+        <v>634</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>314</v>
+        <v>635</v>
       </c>
       <c r="N187" t="s" s="2">
-        <v>315</v>
+        <v>636</v>
       </c>
       <c r="O187" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P187" s="2"/>
       <c r="Q187" t="s" s="2">
-        <v>316</v>
+        <v>44</v>
       </c>
       <c r="R187" t="s" s="2">
         <v>44</v>
@@ -23595,13 +23611,13 @@
         <v>44</v>
       </c>
       <c r="W187" t="s" s="2">
-        <v>44</v>
+        <v>293</v>
       </c>
       <c r="X187" t="s" s="2">
-        <v>44</v>
+        <v>637</v>
       </c>
       <c r="Y187" t="s" s="2">
-        <v>44</v>
+        <v>638</v>
       </c>
       <c r="Z187" t="s" s="2">
         <v>44</v>
@@ -23619,13 +23635,13 @@
         <v>44</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>317</v>
+        <v>631</v>
       </c>
       <c r="AF187" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG187" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH187" t="s" s="2">
         <v>44</v>
@@ -23637,16 +23653,16 @@
         <v>44</v>
       </c>
       <c r="AK187" t="s" s="2">
-        <v>318</v>
+        <v>623</v>
       </c>
       <c r="AL187" t="s" s="2">
-        <v>319</v>
+        <v>639</v>
       </c>
       <c r="AM187" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN187" t="s" s="2">
-        <v>44</v>
+        <v>640</v>
       </c>
     </row>
     <row r="188" hidden="true">
@@ -23671,20 +23687,18 @@
         <v>44</v>
       </c>
       <c r="I188" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J188" t="s" s="2">
         <v>54</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>321</v>
+        <v>123</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M188" t="s" s="2">
-        <v>323</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="M188" s="2"/>
       <c r="N188" s="2"/>
       <c r="O188" t="s" s="2">
         <v>44</v>
@@ -23733,7 +23747,7 @@
         <v>44</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>324</v>
+        <v>125</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>42</v>
@@ -23745,16 +23759,16 @@
         <v>44</v>
       </c>
       <c r="AI188" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ188" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK188" t="s" s="2">
-        <v>325</v>
+        <v>44</v>
       </c>
       <c r="AL188" t="s" s="2">
-        <v>326</v>
+        <v>126</v>
       </c>
       <c r="AM188" t="s" s="2">
         <v>44</v>
@@ -23769,14 +23783,14 @@
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="D189" s="2"/>
       <c r="E189" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F189" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G189" t="s" s="2">
         <v>44</v>
@@ -23785,21 +23799,21 @@
         <v>44</v>
       </c>
       <c r="I189" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J189" t="s" s="2">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>328</v>
+        <v>99</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M189" s="2"/>
-      <c r="N189" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="M189" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="N189" s="2"/>
       <c r="O189" t="s" s="2">
         <v>44</v>
       </c>
@@ -23835,40 +23849,40 @@
         <v>44</v>
       </c>
       <c r="AA189" t="s" s="2">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="AB189" t="s" s="2">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="AC189" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD189" t="s" s="2">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="AE189" t="s" s="2">
-        <v>331</v>
+        <v>131</v>
       </c>
       <c r="AF189" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG189" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH189" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI189" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ189" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK189" t="s" s="2">
-        <v>332</v>
+        <v>44</v>
       </c>
       <c r="AL189" t="s" s="2">
-        <v>333</v>
+        <v>126</v>
       </c>
       <c r="AM189" t="s" s="2">
         <v>44</v>
@@ -23887,10 +23901,10 @@
       </c>
       <c r="D190" s="2"/>
       <c r="E190" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F190" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G190" t="s" s="2">
         <v>44</v>
@@ -23902,17 +23916,19 @@
         <v>53</v>
       </c>
       <c r="J190" t="s" s="2">
-        <v>54</v>
+        <v>301</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>335</v>
+        <v>302</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M190" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="M190" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="N190" t="s" s="2">
-        <v>337</v>
+        <v>305</v>
       </c>
       <c r="O190" t="s" s="2">
         <v>44</v>
@@ -23961,13 +23977,13 @@
         <v>44</v>
       </c>
       <c r="AE190" t="s" s="2">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="AF190" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG190" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH190" t="s" s="2">
         <v>44</v>
@@ -23979,10 +23995,10 @@
         <v>44</v>
       </c>
       <c r="AK190" t="s" s="2">
-        <v>339</v>
+        <v>307</v>
       </c>
       <c r="AL190" t="s" s="2">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="AM190" t="s" s="2">
         <v>44</v>
@@ -24013,23 +24029,19 @@
         <v>44</v>
       </c>
       <c r="I191" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J191" t="s" s="2">
-        <v>342</v>
+        <v>54</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>343</v>
+        <v>123</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M191" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N191" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="M191" s="2"/>
+      <c r="N191" s="2"/>
       <c r="O191" t="s" s="2">
         <v>44</v>
       </c>
@@ -24077,7 +24089,7 @@
         <v>44</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>347</v>
+        <v>125</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>42</v>
@@ -24089,16 +24101,16 @@
         <v>44</v>
       </c>
       <c r="AI191" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ191" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK191" t="s" s="2">
-        <v>348</v>
+        <v>44</v>
       </c>
       <c r="AL191" t="s" s="2">
-        <v>349</v>
+        <v>126</v>
       </c>
       <c r="AM191" t="s" s="2">
         <v>44</v>
@@ -24113,14 +24125,14 @@
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="D192" s="2"/>
       <c r="E192" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F192" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G192" t="s" s="2">
         <v>44</v>
@@ -24129,23 +24141,21 @@
         <v>44</v>
       </c>
       <c r="I192" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J192" t="s" s="2">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>351</v>
+        <v>99</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>352</v>
+        <v>128</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N192" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N192" s="2"/>
       <c r="O192" t="s" s="2">
         <v>44</v>
       </c>
@@ -24181,40 +24191,40 @@
         <v>44</v>
       </c>
       <c r="AA192" t="s" s="2">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="AB192" t="s" s="2">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="AC192" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD192" t="s" s="2">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>355</v>
+        <v>131</v>
       </c>
       <c r="AF192" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG192" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH192" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI192" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ192" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK192" t="s" s="2">
-        <v>356</v>
+        <v>44</v>
       </c>
       <c r="AL192" t="s" s="2">
-        <v>357</v>
+        <v>126</v>
       </c>
       <c r="AM192" t="s" s="2">
         <v>44</v>
@@ -24233,10 +24243,10 @@
       </c>
       <c r="D193" s="2"/>
       <c r="E193" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F193" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G193" t="s" s="2">
         <v>44</v>
@@ -24245,25 +24255,29 @@
         <v>44</v>
       </c>
       <c r="I193" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J193" t="s" s="2">
-        <v>647</v>
+        <v>66</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>12</v>
+        <v>312</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>648</v>
-      </c>
-      <c r="M193" s="2"/>
-      <c r="N193" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="M193" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="N193" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="O193" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P193" s="2"/>
       <c r="Q193" t="s" s="2">
-        <v>44</v>
+        <v>316</v>
       </c>
       <c r="R193" t="s" s="2">
         <v>44</v>
@@ -24305,13 +24319,13 @@
         <v>44</v>
       </c>
       <c r="AE193" t="s" s="2">
-        <v>646</v>
+        <v>317</v>
       </c>
       <c r="AF193" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG193" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH193" t="s" s="2">
         <v>44</v>
@@ -24320,24 +24334,24 @@
         <v>64</v>
       </c>
       <c r="AJ193" t="s" s="2">
-        <v>649</v>
+        <v>44</v>
       </c>
       <c r="AK193" t="s" s="2">
-        <v>408</v>
+        <v>318</v>
       </c>
       <c r="AL193" t="s" s="2">
-        <v>650</v>
+        <v>319</v>
       </c>
       <c r="AM193" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN193" t="s" s="2">
-        <v>651</v>
+        <v>44</v>
       </c>
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -24357,18 +24371,20 @@
         <v>44</v>
       </c>
       <c r="I194" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J194" t="s" s="2">
         <v>54</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>123</v>
+        <v>321</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="M194" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="M194" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="N194" s="2"/>
       <c r="O194" t="s" s="2">
         <v>44</v>
@@ -24417,7 +24433,7 @@
         <v>44</v>
       </c>
       <c r="AE194" t="s" s="2">
-        <v>125</v>
+        <v>324</v>
       </c>
       <c r="AF194" t="s" s="2">
         <v>42</v>
@@ -24429,16 +24445,16 @@
         <v>44</v>
       </c>
       <c r="AI194" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ194" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK194" t="s" s="2">
-        <v>44</v>
+        <v>325</v>
       </c>
       <c r="AL194" t="s" s="2">
-        <v>126</v>
+        <v>326</v>
       </c>
       <c r="AM194" t="s" s="2">
         <v>44</v>
@@ -24449,18 +24465,18 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F195" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G195" t="s" s="2">
         <v>44</v>
@@ -24469,21 +24485,21 @@
         <v>44</v>
       </c>
       <c r="I195" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J195" t="s" s="2">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>99</v>
+        <v>328</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="M195" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N195" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="M195" s="2"/>
+      <c r="N195" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="O195" t="s" s="2">
         <v>44</v>
       </c>
@@ -24519,40 +24535,40 @@
         <v>44</v>
       </c>
       <c r="AA195" t="s" s="2">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="AB195" t="s" s="2">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="AC195" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD195" t="s" s="2">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="AE195" t="s" s="2">
-        <v>131</v>
+        <v>331</v>
       </c>
       <c r="AF195" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG195" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH195" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI195" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ195" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK195" t="s" s="2">
-        <v>44</v>
+        <v>332</v>
       </c>
       <c r="AL195" t="s" s="2">
-        <v>126</v>
+        <v>333</v>
       </c>
       <c r="AM195" t="s" s="2">
         <v>44</v>
@@ -24563,7 +24579,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -24571,10 +24587,10 @@
       </c>
       <c r="D196" s="2"/>
       <c r="E196" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F196" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G196" t="s" s="2">
         <v>44</v>
@@ -24586,18 +24602,18 @@
         <v>53</v>
       </c>
       <c r="J196" t="s" s="2">
-        <v>655</v>
+        <v>54</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>656</v>
+        <v>335</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="M196" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="N196" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="M196" s="2"/>
+      <c r="N196" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="O196" t="s" s="2">
         <v>44</v>
       </c>
@@ -24645,7 +24661,7 @@
         <v>44</v>
       </c>
       <c r="AE196" t="s" s="2">
-        <v>659</v>
+        <v>338</v>
       </c>
       <c r="AF196" t="s" s="2">
         <v>42</v>
@@ -24663,10 +24679,10 @@
         <v>44</v>
       </c>
       <c r="AK196" t="s" s="2">
-        <v>95</v>
+        <v>339</v>
       </c>
       <c r="AL196" t="s" s="2">
-        <v>660</v>
+        <v>340</v>
       </c>
       <c r="AM196" t="s" s="2">
         <v>44</v>
@@ -24677,7 +24693,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -24700,16 +24716,20 @@
         <v>53</v>
       </c>
       <c r="J197" t="s" s="2">
-        <v>477</v>
+        <v>342</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>662</v>
+        <v>343</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="M197" s="2"/>
-      <c r="N197" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="M197" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="N197" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="O197" t="s" s="2">
         <v>44</v>
       </c>
@@ -24757,7 +24777,7 @@
         <v>44</v>
       </c>
       <c r="AE197" t="s" s="2">
-        <v>664</v>
+        <v>347</v>
       </c>
       <c r="AF197" t="s" s="2">
         <v>42</v>
@@ -24775,10 +24795,10 @@
         <v>44</v>
       </c>
       <c r="AK197" t="s" s="2">
-        <v>95</v>
+        <v>348</v>
       </c>
       <c r="AL197" t="s" s="2">
-        <v>665</v>
+        <v>349</v>
       </c>
       <c r="AM197" t="s" s="2">
         <v>44</v>
@@ -24789,7 +24809,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>666</v>
+        <v>651</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -24797,10 +24817,10 @@
       </c>
       <c r="D198" s="2"/>
       <c r="E198" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F198" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G198" t="s" s="2">
         <v>44</v>
@@ -24812,16 +24832,20 @@
         <v>53</v>
       </c>
       <c r="J198" t="s" s="2">
-        <v>667</v>
+        <v>54</v>
       </c>
       <c r="K198" t="s" s="2">
-        <v>668</v>
+        <v>351</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="M198" s="2"/>
-      <c r="N198" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="M198" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="N198" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="O198" t="s" s="2">
         <v>44</v>
       </c>
@@ -24869,10 +24893,10 @@
         <v>44</v>
       </c>
       <c r="AE198" t="s" s="2">
-        <v>670</v>
+        <v>355</v>
       </c>
       <c r="AF198" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG198" t="s" s="2">
         <v>52</v>
@@ -24887,10 +24911,10 @@
         <v>44</v>
       </c>
       <c r="AK198" t="s" s="2">
-        <v>95</v>
+        <v>356</v>
       </c>
       <c r="AL198" t="s" s="2">
-        <v>671</v>
+        <v>357</v>
       </c>
       <c r="AM198" t="s" s="2">
         <v>44</v>
@@ -24901,7 +24925,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>672</v>
+        <v>652</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -24912,7 +24936,7 @@
         <v>42</v>
       </c>
       <c r="F199" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G199" t="s" s="2">
         <v>44</v>
@@ -24921,16 +24945,16 @@
         <v>44</v>
       </c>
       <c r="I199" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J199" t="s" s="2">
-        <v>54</v>
+        <v>653</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>673</v>
+        <v>12</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>674</v>
+        <v>654</v>
       </c>
       <c r="M199" s="2"/>
       <c r="N199" s="2"/>
@@ -24981,13 +25005,13 @@
         <v>44</v>
       </c>
       <c r="AE199" t="s" s="2">
-        <v>672</v>
+        <v>652</v>
       </c>
       <c r="AF199" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG199" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH199" t="s" s="2">
         <v>44</v>
@@ -24996,24 +25020,24 @@
         <v>64</v>
       </c>
       <c r="AJ199" t="s" s="2">
-        <v>44</v>
+        <v>655</v>
       </c>
       <c r="AK199" t="s" s="2">
         <v>408</v>
       </c>
       <c r="AL199" t="s" s="2">
-        <v>675</v>
+        <v>656</v>
       </c>
       <c r="AM199" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN199" t="s" s="2">
-        <v>44</v>
+        <v>657</v>
       </c>
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>676</v>
+        <v>658</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -25036,17 +25060,15 @@
         <v>44</v>
       </c>
       <c r="J200" t="s" s="2">
-        <v>677</v>
+        <v>54</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>678</v>
+        <v>123</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>679</v>
-      </c>
-      <c r="M200" t="s" s="2">
-        <v>680</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="M200" s="2"/>
       <c r="N200" s="2"/>
       <c r="O200" t="s" s="2">
         <v>44</v>
@@ -25095,38 +25117,716 @@
         <v>44</v>
       </c>
       <c r="AE200" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AF200" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG200" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH200" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI200" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ200" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK200" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL200" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AM200" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN200" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="201" hidden="true">
+      <c r="A201" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="B201" s="2"/>
+      <c r="C201" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="D201" s="2"/>
+      <c r="E201" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F201" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G201" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H201" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I201" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J201" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K201" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L201" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="M201" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="N201" s="2"/>
+      <c r="O201" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P201" s="2"/>
+      <c r="Q201" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R201" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S201" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T201" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U201" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V201" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W201" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X201" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y201" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z201" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA201" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AB201" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AC201" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD201" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AE201" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AF201" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG201" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH201" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI201" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ201" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK201" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL201" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AM201" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN201" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="202" hidden="true">
+      <c r="A202" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="B202" s="2"/>
+      <c r="C202" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D202" s="2"/>
+      <c r="E202" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F202" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G202" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H202" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I202" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J202" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="K202" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="L202" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="M202" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="N202" s="2"/>
+      <c r="O202" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P202" s="2"/>
+      <c r="Q202" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R202" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S202" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T202" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U202" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V202" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W202" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X202" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y202" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z202" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA202" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB202" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC202" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD202" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE202" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="AF202" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG202" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH202" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI202" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ202" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK202" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AL202" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="AM202" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN202" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="203" hidden="true">
+      <c r="A203" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="B203" s="2"/>
+      <c r="C203" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D203" s="2"/>
+      <c r="E203" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F203" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G203" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H203" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I203" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J203" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="K203" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="L203" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="M203" s="2"/>
+      <c r="N203" s="2"/>
+      <c r="O203" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P203" s="2"/>
+      <c r="Q203" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R203" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S203" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T203" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U203" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V203" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W203" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X203" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y203" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z203" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA203" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB203" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC203" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD203" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE203" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="AF203" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG203" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH203" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI203" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ203" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK203" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AL203" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="AM203" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN203" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="204" hidden="true">
+      <c r="A204" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="B204" s="2"/>
+      <c r="C204" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D204" s="2"/>
+      <c r="E204" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="F204" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G204" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H204" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I204" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J204" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="K204" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="L204" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="M204" s="2"/>
+      <c r="N204" s="2"/>
+      <c r="O204" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P204" s="2"/>
+      <c r="Q204" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R204" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S204" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T204" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U204" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V204" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W204" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X204" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y204" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z204" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA204" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB204" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC204" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD204" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE204" t="s" s="2">
         <v>676</v>
       </c>
-      <c r="AF200" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG200" t="s" s="2">
+      <c r="AF204" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AG204" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH204" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI204" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ204" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK204" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AL204" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="AM204" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN204" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="205" hidden="true">
+      <c r="A205" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="B205" s="2"/>
+      <c r="C205" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D205" s="2"/>
+      <c r="E205" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F205" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G205" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H205" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I205" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J205" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="K205" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="L205" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="M205" s="2"/>
+      <c r="N205" s="2"/>
+      <c r="O205" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P205" s="2"/>
+      <c r="Q205" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R205" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S205" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T205" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U205" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V205" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W205" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X205" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y205" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z205" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA205" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB205" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC205" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD205" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE205" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="AF205" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG205" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH205" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI205" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ205" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK205" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AL205" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="AM205" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN205" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="206" hidden="true">
+      <c r="A206" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="B206" s="2"/>
+      <c r="C206" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D206" s="2"/>
+      <c r="E206" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F206" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G206" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H206" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I206" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J206" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="K206" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="L206" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="M206" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="N206" s="2"/>
+      <c r="O206" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P206" s="2"/>
+      <c r="Q206" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R206" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S206" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T206" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U206" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V206" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W206" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X206" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y206" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z206" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA206" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB206" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC206" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD206" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE206" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="AF206" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG206" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AH200" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI200" t="s" s="2">
+      <c r="AH206" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI206" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="AJ200" t="s" s="2">
-        <v>681</v>
-      </c>
-      <c r="AK200" t="s" s="2">
+      <c r="AJ206" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="AK206" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AL200" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="AM200" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN200" t="s" s="2">
+      <c r="AL206" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="AM206" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN206" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN200">
+  <autoFilter ref="A1:AN206">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -25136,7 +25836,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI199">
+  <conditionalFormatting sqref="A2:AI205">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
